--- a/psggConverter/psggConverterLib/cf_prepare/CfPrepareControl.xlsx
+++ b/psggConverter/psggConverterLib/cf_prepare/CfPrepareControl.xlsx
@@ -9,12 +9,12 @@
   </bookViews>
   <sheets>
     <sheet name="state-chart" sheetId="1" r:id="rId1"/>
-    <sheet name="itemsinfo" sheetId="28" r:id="rId31"/>
-    <sheet name="help" sheetId="27" r:id="rId30"/>
-    <sheet name="setting.ini" sheetId="26" r:id="rId29"/>
-    <sheet name="template-statefunc" sheetId="25" r:id="rId28"/>
-    <sheet name="template-source" sheetId="24" r:id="rId27"/>
-    <sheet name="config" sheetId="23" r:id="rId26"/>
+    <sheet name="itemsinfo" sheetId="172" r:id="rId175"/>
+    <sheet name="help" sheetId="171" r:id="rId174"/>
+    <sheet name="setting.ini" sheetId="170" r:id="rId173"/>
+    <sheet name="template-statefunc" sheetId="169" r:id="rId172"/>
+    <sheet name="template-source" sheetId="168" r:id="rId171"/>
+    <sheet name="config" sheetId="167" r:id="rId170"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="232">
   <si>
     <t>state</t>
     <phoneticPr fontId="2"/>
@@ -917,6 +917,1922 @@
 @@@
 fillter_state_location_list=@@@
 [{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":28,"y":171}},{"Key":"S_END","Value":{"x":1202,"y":75}},{"Key":"S_START1","Value":{"x":68,"y":55}},{"Key":"E_IMPORT","Value":{"x":35,"y":42}},{"Key":"S_END1","Value":{"x":431,"y":331}},{"Key":"E_0003","Value":{"x":222,"y":40}},{"Key":"E_0004","Value":{"x":424,"y":53}},{"Key":"E_0005","Value":{"x":398,"y":44}},{"Key":"E_INOUT","Value":{"x":35,"y":42}},{"Key":"E_0006","Value":{"x":71,"y":318}},{"Key":"S_0006","Value":{"x":59,"y":408}},{"Key":"S_RETURN_FALSE","Value":{"x":1005,"y":76}},{"Key":"S_0007","Value":{"x":153,"y":269}},{"Key":"S_CHECK_EXCEPTION","Value":{"x":521,"y":570}},{"Key":"S_INIT2","Value":{"x":743,"y":569}},{"Key":"S_CHECK_LINES","Value":{"x":42,"y":264}},{"Key":"S_FIND_MATCHLINES","Value":{"x":59,"y":408}},{"Key":"S_INIT3","Value":{"x":753,"y":595}},{"Key":"S_TARGET","Value":{"x":953,"y":560}},{"Key":"S_TARGET1","Value":{"x":38,"y":857}},{"Key":"S_BOC_TARGET","Value":{"x":38,"y":857}},{"Key":"S_CHECK_BOT","Value":{"x":45,"y":860}},{"Key":"S_CHECK_BOT1","Value":{"x":348,"y":870}},{"Key":"S_STR_W_REGEX","Value":{"x":288,"y":789}},{"Key":"S_STR_W_REGEX1","Value":{"x":288,"y":993}},{"Key":"S_ITEM_W_REGEX","Value":{"x":288,"y":993}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BACKTO_"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=33
+content_max_height=200
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/01/11 21:11:04
+; * pssgEditor version : 0.20.2681.7a2a680482afe3969e88b813259898fe697acf11
+psggfile=@@@
+CfPrepareControl.psgg
+@@@
+xlsfile=@@@
+CfPrepareControl.xlsx
+@@@
+guid=@@@
+28672353-b06d-433b-a85c-dd10e8edd1e8
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Initilized
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":28,"y":171}},{"Key":"S_END","Value":{"x":1202,"y":75}},{"Key":"E_0003","Value":{"x":222,"y":40}},{"Key":"E_0005","Value":{"x":398,"y":44}},{"Key":"E_INOUT","Value":{"x":35,"y":42}},{"Key":"S_RETURN_FALSE","Value":{"x":1005,"y":76}},{"Key":"S_CHECK_EXCEPTION","Value":{"x":521,"y":570}},{"Key":"S_INIT2","Value":{"x":743,"y":569}},{"Key":"S_CHECK_LINES","Value":{"x":42,"y":264}},{"Key":"S_FIND_MATCHLINES","Value":{"x":59,"y":408}},{"Key":"S_TARGET","Value":{"x":953,"y":560}},{"Key":"S_CHECK_BOT","Value":{"x":45,"y":860}},{"Key":"S_STR_W_REGEX","Value":{"x":288,"y":789}},{"Key":"S_ITEM_W_REGEX","Value":{"x":288,"y":993}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BACKTO_"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=33
+content_max_height=200
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+</t>
+  </si>
+  <si>
+    <t>S_CHECK_VALID_VAL</t>
+  </si>
+  <si>
+    <t>対象値が有効か？</t>
+  </si>
+  <si>
+    <t>S_IS_VALID_REGEX</t>
+  </si>
+  <si>
+    <t>m_bValid = !string.IsNullOrEmpty(val);</t>
+  </si>
+  <si>
+    <t>brifc(?);
+brelse(?);</t>
+  </si>
+  <si>
+    <t>m_vValid
+?</t>
+  </si>
+  <si>
+    <t>543,919</t>
+  </si>
+  <si>
+    <t>100015</t>
+  </si>
+  <si>
+    <t>var b = !string.IsNullOrEmpty(regex) &amp;&amp; regex.Length &gt; 2;</t>
+  </si>
+  <si>
+    <t>brifc(S_EXEC_REGEX);
+brelse(?);</t>
+  </si>
+  <si>
+    <t>b
+?</t>
+  </si>
+  <si>
+    <t>753,929</t>
+  </si>
+  <si>
+    <t>100016</t>
+  </si>
+  <si>
+    <t>S_EXEC_REGEX</t>
+  </si>
+  <si>
+    <t>正規表現の実行</t>
+  </si>
+  <si>
+    <t>if (m_regex[0]=='/' &amp;&amp; m_regex[regex.Length-1]=='/')
+{
+    m_regex = m_regex.Substring(1);
+    m_regex = m_regex.Substring(0,m_regex.Length - 1);
+    var match = RegexUtil.Get1stMatch(regex,val);
+    m_bValid = !string.IsNullOrEmpty(match);
+}
+else
+{
+    m_bValid  = false;
+    throw new SystemException("{59858294-6BCF-45B6-B441-076A5A6041D8}\n" + line0);
+}
+</t>
+  </si>
+  <si>
+    <t>brifc(S_GET_SIZE);
+brelse(S_REMOVE);</t>
+  </si>
+  <si>
+    <t>m_bValid
+?</t>
+  </si>
+  <si>
+    <t>999,798</t>
+  </si>
+  <si>
+    <t>100017</t>
+  </si>
+  <si>
+    <t>S_GET_SIZE</t>
+  </si>
+  <si>
+    <t>EOFのため先にターゲットラインの行数を求める</t>
+  </si>
+  <si>
+    <t>S_CHECK_EOF</t>
+  </si>
+  <si>
+    <t>int m_size = 0;</t>
+  </si>
+  <si>
+    <t>m_size = targetlines.Count;</t>
+  </si>
+  <si>
+    <t>1250,716</t>
+  </si>
+  <si>
+    <t>100018</t>
+  </si>
+  <si>
+    <t>最終行が eof＞＞＞か？</t>
+  </si>
+  <si>
+    <t>S_REMOVE_TOPBOT</t>
+  </si>
+  <si>
+    <t>bool m_bEOF;</t>
+  </si>
+  <si>
+    <t>m_bEOF = (targetlines[targetlines.Count - 1].ToLower().Contains("eof&gt;&gt;&gt;"));</t>
+  </si>
+  <si>
+    <t>1443,708</t>
+  </si>
+  <si>
+    <t>100019</t>
+  </si>
+  <si>
+    <t>//先頭行と最終行の削除</t>
+  </si>
+  <si>
+    <t>S_IF_EOF</t>
+  </si>
+  <si>
+    <t>targetlines.RemoveAt(0);
+targetlines.RemoveAt(targetlines.Count - 1);
+</t>
+  </si>
+  <si>
+    <t>1632,710</t>
+  </si>
+  <si>
+    <t>100020</t>
+  </si>
+  <si>
+    <t>brifc(S_REMOVE_REST);
+brelse(S_REPLACE);</t>
+  </si>
+  <si>
+    <t>m_bEOF
+?</t>
+  </si>
+  <si>
+    <t>1824,726</t>
+  </si>
+  <si>
+    <t>100021</t>
+  </si>
+  <si>
+    <t>S_REMOVE_REST</t>
+  </si>
+  <si>
+    <t>以降を削除し、行数を１に</t>
+  </si>
+  <si>
+    <t>S_REPLACE</t>
+  </si>
+  <si>
+    <t>while (lines.Count &gt; findindex + 1)
+{
+    lines.RemoveAt(lines.Count - 1);
+}
+size = 1;
+</t>
+  </si>
+  <si>
+    <t>2094,540</t>
+  </si>
+  <si>
+    <t>100022</t>
+  </si>
+  <si>
+    <t>変換したものに入れ替え</t>
+  </si>
+  <si>
+    <t>S_RETURN_TRUE</t>
+  </si>
+  <si>
+    <t>m_lines = StringUtil.ReplaceLines(m_lines, findindex, m_size, m_targetlines);
+</t>
+  </si>
+  <si>
+    <t>2367,693</t>
+  </si>
+  <si>
+    <t>100023</t>
+  </si>
+  <si>
+    <t>S_REMOVE</t>
+  </si>
+  <si>
+    <t>m_lines.RemoveRange(m_findindex, m_targetlines.Count);</t>
+  </si>
+  <si>
+    <t>2319,1071</t>
+  </si>
+  <si>
+    <t>100024</t>
+  </si>
+  <si>
+    <t>m_bResult = true;</t>
+  </si>
+  <si>
+    <t>2704,418</t>
+  </si>
+  <si>
+    <t>100025</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/01/11 21:39:40
+; * pssgEditor version : 0.20.2681.7a2a680482afe3969e88b813259898fe697acf11
+psggfile=@@@
+CfPrepareControl.psgg
+@@@
+xlsfile=@@@
+CfPrepareControl.xlsx
+@@@
+guid=@@@
+28672353-b06d-433b-a85c-dd10e8edd1e8
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Moved a state
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":28,"y":171}},{"Key":"S_END","Value":{"x":1202,"y":75}},{"Key":"E_0003","Value":{"x":222,"y":40}},{"Key":"E_0005","Value":{"x":398,"y":44}},{"Key":"E_INOUT","Value":{"x":35,"y":42}},{"Key":"S_RETURN_FALSE","Value":{"x":1005,"y":76}},{"Key":"S_CHECK_EXCEPTION","Value":{"x":521,"y":570}},{"Key":"S_INIT2","Value":{"x":743,"y":569}},{"Key":"S_CHECK_LINES","Value":{"x":42,"y":264}},{"Key":"S_FIND_MATCHLINES","Value":{"x":59,"y":408}},{"Key":"S_TARGET","Value":{"x":953,"y":560}},{"Key":"S_CHECK_BOT","Value":{"x":45,"y":860}},{"Key":"S_STR_W_REGEX","Value":{"x":288,"y":789}},{"Key":"S_ITEM_W_REGEX","Value":{"x":288,"y":993}},{"Key":"S_STR_W_REGEX1","Value":{"x":543,"y":919}},{"Key":"S_CHECK_VALID","Value":{"x":543,"y":919}},{"Key":"S_STR_W_REGEX2","Value":{"x":803,"y":924}},{"Key":"S_IS_VALID_REGEX","Value":{"x":753,"y":929}},{"Key":"S_IS_VALID_REGEX1","Value":{"x":1240,"y":798}},{"Key":"S_EXEC_REGEX","Value":{"x":999,"y":798}},{"Key":"S_CHECK_VALID_VAL","Value":{"x":543,"y":919}},{"Key":"S_SAVESIZE","Value":{"x":1250,"y":716}},{"Key":"S_SAVESIZE1","Value":{"x":1454,"y":720}},{"Key":"S_GET_SIZE","Value":{"x":1250,"y":716}},{"Key":"S_CHECK_EOF","Value":{"x":1443,"y":708}},{"Key":"S_CHECK_EOF1","Value":{"x":1644,"y":710}},{"Key":"S_REMOVE_TOPBOT","Value":{"x":1632,"y":710}},{"Key":"S_CHECK_EOF2","Value":{"x":1829,"y":714}},{"Key":"S_IF_EOF","Value":{"x":1824,"y":726}},{"Key":"S_REMOVE_TOPBOT1","Value":{"x":2050,"y":721}},{"Key":"S_REMOVE_REST","Value":{"x":2094,"y":540}},{"Key":"S_REMOVE_REST1","Value":{"x":2316,"y":758}},{"Key":"S_REPLACE","Value":{"x":2367,"y":693}},{"Key":"S_REPLACE1","Value":{"x":1406,"y":1051}},{"Key":"S_REMOVE","Value":{"x":2319,"y":1071}},{"Key":"S_RETURN_FALSE1","Value":{"x":2647,"y":404}},{"Key":"S_RETURN_TRUE","Value":{"x":2704,"y":418}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BACKTO_"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=33
+content_max_height=200
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+</t>
+  </si>
+  <si>
+    <t>2914,198</t>
+  </si>
+  <si>
+    <t>brifc(S_IS_VALID_REGEX);
+brelse(S_RETURN_TRUE);</t>
+  </si>
+  <si>
+    <t>517,1053</t>
+  </si>
+  <si>
+    <t>brifc(S_EXEC_REGEX);
+brelse(S_RETURN_TRUE);</t>
+  </si>
+  <si>
+    <t>764,1018</t>
+  </si>
+  <si>
+    <t>1022,762</t>
+  </si>
+  <si>
+    <t>2644,1581</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/01/11 21:46:34
+; * pssgEditor version : 0.20.2681.7a2a680482afe3969e88b813259898fe697acf11
+psggfile=@@@
+CfPrepareControl.psgg
+@@@
+xlsfile=@@@
+CfPrepareControl.xlsx
+@@@
+guid=@@@
+28672353-b06d-433b-a85c-dd10e8edd1e8
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Moved a state
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":28,"y":171}},{"Key":"S_END","Value":{"x":2913.66675,"y":198.333344}},{"Key":"E_0003","Value":{"x":222,"y":40}},{"Key":"E_0005","Value":{"x":398,"y":44}},{"Key":"E_INOUT","Value":{"x":35,"y":42}},{"Key":"S_RETURN_FALSE","Value":{"x":1005,"y":76}},{"Key":"S_CHECK_EXCEPTION","Value":{"x":521,"y":570}},{"Key":"S_INIT2","Value":{"x":743,"y":569}},{"Key":"S_CHECK_LINES","Value":{"x":42,"y":264}},{"Key":"S_FIND_MATCHLINES","Value":{"x":59,"y":408}},{"Key":"S_TARGET","Value":{"x":953,"y":560}},{"Key":"S_CHECK_BOT","Value":{"x":45,"y":860}},{"Key":"S_STR_W_REGEX","Value":{"x":288,"y":789}},{"Key":"S_ITEM_W_REGEX","Value":{"x":288,"y":993}},{"Key":"S_STR_W_REGEX1","Value":{"x":543,"y":919}},{"Key":"S_CHECK_VALID","Value":{"x":543,"y":919}},{"Key":"S_STR_W_REGEX2","Value":{"x":803,"y":924}},{"Key":"S_IS_VALID_REGEX","Value":{"x":764,"y":1018}},{"Key":"S_IS_VALID_REGEX1","Value":{"x":1240,"y":798}},{"Key":"S_EXEC_REGEX","Value":{"x":1021.66675,"y":762}},{"Key":"S_CHECK_VALID_VAL","Value":{"x":516.6667,"y":1053}},{"Key":"S_SAVESIZE","Value":{"x":1250,"y":716}},{"Key":"S_SAVESIZE1","Value":{"x":1454,"y":720}},{"Key":"S_GET_SIZE","Value":{"x":1250,"y":716}},{"Key":"S_CHECK_EOF","Value":{"x":1443,"y":708}},{"Key":"S_CHECK_EOF1","Value":{"x":1644,"y":710}},{"Key":"S_REMOVE_TOPBOT","Value":{"x":1632,"y":710}},{"Key":"S_CHECK_EOF2","Value":{"x":1829,"y":714}},{"Key":"S_IF_EOF","Value":{"x":1824,"y":726}},{"Key":"S_REMOVE_TOPBOT1","Value":{"x":2050,"y":721}},{"Key":"S_REMOVE_REST","Value":{"x":2094,"y":540}},{"Key":"S_REMOVE_REST1","Value":{"x":2316,"y":758}},{"Key":"S_REPLACE","Value":{"x":2367,"y":693}},{"Key":"S_REPLACE1","Value":{"x":1406,"y":1051}},{"Key":"S_REMOVE","Value":{"x":2319,"y":1071}},{"Key":"S_RETURN_FALSE1","Value":{"x":2647,"y":404}},{"Key":"S_RETURN_TRUE","Value":{"x":2644,"y":1581.33337}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BACKTO_"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=33
+content_max_height=200
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+</t>
+  </si>
+  <si>
+    <t>brifc(S_IS_VALID_REGEX);
+brelse(S_REMOVE);</t>
+  </si>
+  <si>
+    <t>brifc(S_EXEC_REGEX);
+brelse(S_REMOVE);</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/01/11 21:47:33
+; * pssgEditor version : 0.20.2681.7a2a680482afe3969e88b813259898fe697acf11
+psggfile=@@@
+CfPrepareControl.psgg
+@@@
+xlsfile=@@@
+CfPrepareControl.xlsx
+@@@
+guid=@@@
+28672353-b06d-433b-a85c-dd10e8edd1e8
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Changed an arrow direction
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":28,"y":171}},{"Key":"S_END","Value":{"x":2914,"y":198}},{"Key":"E_0003","Value":{"x":222,"y":40}},{"Key":"E_0005","Value":{"x":398,"y":44}},{"Key":"E_INOUT","Value":{"x":35,"y":42}},{"Key":"S_RETURN_FALSE","Value":{"x":1005,"y":76}},{"Key":"S_CHECK_EXCEPTION","Value":{"x":521,"y":570}},{"Key":"S_INIT2","Value":{"x":743,"y":569}},{"Key":"S_CHECK_LINES","Value":{"x":42,"y":264}},{"Key":"S_FIND_MATCHLINES","Value":{"x":59,"y":408}},{"Key":"S_TARGET","Value":{"x":953,"y":560}},{"Key":"S_CHECK_BOT","Value":{"x":45,"y":860}},{"Key":"S_STR_W_REGEX","Value":{"x":288,"y":789}},{"Key":"S_ITEM_W_REGEX","Value":{"x":288,"y":993}},{"Key":"S_STR_W_REGEX1","Value":{"x":543,"y":919}},{"Key":"S_CHECK_VALID","Value":{"x":543,"y":919}},{"Key":"S_STR_W_REGEX2","Value":{"x":803,"y":924}},{"Key":"S_IS_VALID_REGEX","Value":{"x":764,"y":1018}},{"Key":"S_IS_VALID_REGEX1","Value":{"x":1240,"y":798}},{"Key":"S_EXEC_REGEX","Value":{"x":1022,"y":762}},{"Key":"S_CHECK_VALID_VAL","Value":{"x":517,"y":1053}},{"Key":"S_SAVESIZE","Value":{"x":1250,"y":716}},{"Key":"S_SAVESIZE1","Value":{"x":1454,"y":720}},{"Key":"S_GET_SIZE","Value":{"x":1250,"y":716}},{"Key":"S_CHECK_EOF","Value":{"x":1443,"y":708}},{"Key":"S_CHECK_EOF1","Value":{"x":1644,"y":710}},{"Key":"S_REMOVE_TOPBOT","Value":{"x":1632,"y":710}},{"Key":"S_CHECK_EOF2","Value":{"x":1829,"y":714}},{"Key":"S_IF_EOF","Value":{"x":1824,"y":726}},{"Key":"S_REMOVE_TOPBOT1","Value":{"x":2050,"y":721}},{"Key":"S_REMOVE_REST","Value":{"x":2094,"y":540}},{"Key":"S_REMOVE_REST1","Value":{"x":2316,"y":758}},{"Key":"S_REPLACE","Value":{"x":2367,"y":693}},{"Key":"S_REPLACE1","Value":{"x":1406,"y":1051}},{"Key":"S_REMOVE","Value":{"x":2319,"y":1071}},{"Key":"S_RETURN_FALSE1","Value":{"x":2647,"y":404}},{"Key":"S_RETURN_TRUE","Value":{"x":2644,"y":1581}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BACKTO_"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=33
+content_max_height=200
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+</t>
+  </si>
+  <si>
+    <t>1342,1280</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/01/11 21:48:39
+; * pssgEditor version : 0.20.2681.7a2a680482afe3969e88b813259898fe697acf11
+psggfile=@@@
+CfPrepareControl.psgg
+@@@
+xlsfile=@@@
+CfPrepareControl.xlsx
+@@@
+guid=@@@
+28672353-b06d-433b-a85c-dd10e8edd1e8
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Moved a state
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":28,"y":171}},{"Key":"S_END","Value":{"x":2914,"y":198}},{"Key":"E_0003","Value":{"x":222,"y":40}},{"Key":"E_0005","Value":{"x":398,"y":44}},{"Key":"E_INOUT","Value":{"x":35,"y":42}},{"Key":"S_RETURN_FALSE","Value":{"x":1005,"y":76}},{"Key":"S_CHECK_EXCEPTION","Value":{"x":521,"y":570}},{"Key":"S_INIT2","Value":{"x":743,"y":569}},{"Key":"S_CHECK_LINES","Value":{"x":42,"y":264}},{"Key":"S_FIND_MATCHLINES","Value":{"x":59,"y":408}},{"Key":"S_TARGET","Value":{"x":953,"y":560}},{"Key":"S_CHECK_BOT","Value":{"x":45,"y":860}},{"Key":"S_STR_W_REGEX","Value":{"x":288,"y":789}},{"Key":"S_ITEM_W_REGEX","Value":{"x":288,"y":993}},{"Key":"S_STR_W_REGEX1","Value":{"x":543,"y":919}},{"Key":"S_CHECK_VALID","Value":{"x":543,"y":919}},{"Key":"S_STR_W_REGEX2","Value":{"x":803,"y":924}},{"Key":"S_IS_VALID_REGEX","Value":{"x":764,"y":1018}},{"Key":"S_IS_VALID_REGEX1","Value":{"x":1240,"y":798}},{"Key":"S_EXEC_REGEX","Value":{"x":1022,"y":762}},{"Key":"S_CHECK_VALID_VAL","Value":{"x":517,"y":1053}},{"Key":"S_SAVESIZE","Value":{"x":1250,"y":716}},{"Key":"S_SAVESIZE1","Value":{"x":1454,"y":720}},{"Key":"S_GET_SIZE","Value":{"x":1250,"y":716}},{"Key":"S_CHECK_EOF","Value":{"x":1443,"y":708}},{"Key":"S_CHECK_EOF1","Value":{"x":1644,"y":710}},{"Key":"S_REMOVE_TOPBOT","Value":{"x":1632,"y":710}},{"Key":"S_CHECK_EOF2","Value":{"x":1829,"y":714}},{"Key":"S_IF_EOF","Value":{"x":1824,"y":726}},{"Key":"S_REMOVE_TOPBOT1","Value":{"x":2050,"y":721}},{"Key":"S_REMOVE_REST","Value":{"x":2094,"y":540}},{"Key":"S_REMOVE_REST1","Value":{"x":2316,"y":758}},{"Key":"S_REPLACE","Value":{"x":2367,"y":693}},{"Key":"S_REPLACE1","Value":{"x":1406,"y":1051}},{"Key":"S_REMOVE","Value":{"x":1341.66675,"y":1280.33337}},{"Key":"S_RETURN_FALSE1","Value":{"x":2647,"y":404}},{"Key":"S_RETURN_TRUE","Value":{"x":2644,"y":1581}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BACKTO_"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=33
+content_max_height=200
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+</t>
+  </si>
+  <si>
+    <t>206,39</t>
+  </si>
+  <si>
+    <t>382,43</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/01/11 21:49:43
+; * pssgEditor version : 0.20.2681.7a2a680482afe3969e88b813259898fe697acf11
+psggfile=@@@
+CfPrepareControl.psgg
+@@@
+xlsfile=@@@
+CfPrepareControl.xlsx
+@@@
+guid=@@@
+28672353-b06d-433b-a85c-dd10e8edd1e8
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Moved a state
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":28,"y":171}},{"Key":"S_END","Value":{"x":2914,"y":198}},{"Key":"E_0003","Value":{"x":206,"y":38.6666641}},{"Key":"E_0005","Value":{"x":382,"y":42.6666641}},{"Key":"E_INOUT","Value":{"x":35,"y":42}},{"Key":"S_RETURN_FALSE","Value":{"x":1005,"y":76}},{"Key":"S_CHECK_EXCEPTION","Value":{"x":521,"y":570}},{"Key":"S_INIT2","Value":{"x":743,"y":569}},{"Key":"S_CHECK_LINES","Value":{"x":42,"y":264}},{"Key":"S_FIND_MATCHLINES","Value":{"x":59,"y":408}},{"Key":"S_TARGET","Value":{"x":953,"y":560}},{"Key":"S_CHECK_BOT","Value":{"x":45,"y":860}},{"Key":"S_STR_W_REGEX","Value":{"x":288,"y":789}},{"Key":"S_ITEM_W_REGEX","Value":{"x":288,"y":993}},{"Key":"S_STR_W_REGEX1","Value":{"x":543,"y":919}},{"Key":"S_CHECK_VALID","Value":{"x":543,"y":919}},{"Key":"S_STR_W_REGEX2","Value":{"x":803,"y":924}},{"Key":"S_IS_VALID_REGEX","Value":{"x":764,"y":1018}},{"Key":"S_IS_VALID_REGEX1","Value":{"x":1240,"y":798}},{"Key":"S_EXEC_REGEX","Value":{"x":1022,"y":762}},{"Key":"S_CHECK_VALID_VAL","Value":{"x":517,"y":1053}},{"Key":"S_SAVESIZE","Value":{"x":1250,"y":716}},{"Key":"S_SAVESIZE1","Value":{"x":1454,"y":720}},{"Key":"S_GET_SIZE","Value":{"x":1250,"y":716}},{"Key":"S_CHECK_EOF","Value":{"x":1443,"y":708}},{"Key":"S_CHECK_EOF1","Value":{"x":1644,"y":710}},{"Key":"S_REMOVE_TOPBOT","Value":{"x":1632,"y":710}},{"Key":"S_CHECK_EOF2","Value":{"x":1829,"y":714}},{"Key":"S_IF_EOF","Value":{"x":1824,"y":726}},{"Key":"S_REMOVE_TOPBOT1","Value":{"x":2050,"y":721}},{"Key":"S_REMOVE_REST","Value":{"x":2094,"y":540}},{"Key":"S_REMOVE_REST1","Value":{"x":2316,"y":758}},{"Key":"S_REPLACE","Value":{"x":2367,"y":693}},{"Key":"S_REPLACE1","Value":{"x":1406,"y":1051}},{"Key":"S_REMOVE","Value":{"x":1342,"y":1280}},{"Key":"S_RETURN_FALSE1","Value":{"x":2647,"y":404}},{"Key":"S_RETURN_TRUE","Value":{"x":2644,"y":1581}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BACKTO_"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=33
+content_max_height=200
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+</t>
+  </si>
+  <si>
+    <t>m_targetlines.RemoveAt(0);
+m_targetlines.RemoveAt(m_targetlines.Count - 1);
+</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/01/11 21:50:39
+; * pssgEditor version : 0.20.2681.7a2a680482afe3969e88b813259898fe697acf11
+psggfile=@@@
+CfPrepareControl.psgg
+@@@
+xlsfile=@@@
+CfPrepareControl.xlsx
+@@@
+guid=@@@
+28672353-b06d-433b-a85c-dd10e8edd1e8
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":28,"y":171}},{"Key":"S_END","Value":{"x":2914,"y":198}},{"Key":"E_0003","Value":{"x":206,"y":39}},{"Key":"E_0005","Value":{"x":382,"y":43}},{"Key":"E_INOUT","Value":{"x":35,"y":42}},{"Key":"S_RETURN_FALSE","Value":{"x":1005,"y":76}},{"Key":"S_CHECK_EXCEPTION","Value":{"x":521,"y":570}},{"Key":"S_INIT2","Value":{"x":743,"y":569}},{"Key":"S_CHECK_LINES","Value":{"x":42,"y":264}},{"Key":"S_FIND_MATCHLINES","Value":{"x":59,"y":408}},{"Key":"S_TARGET","Value":{"x":953,"y":560}},{"Key":"S_CHECK_BOT","Value":{"x":45,"y":860}},{"Key":"S_STR_W_REGEX","Value":{"x":288,"y":789}},{"Key":"S_ITEM_W_REGEX","Value":{"x":288,"y":993}},{"Key":"S_STR_W_REGEX1","Value":{"x":543,"y":919}},{"Key":"S_CHECK_VALID","Value":{"x":543,"y":919}},{"Key":"S_STR_W_REGEX2","Value":{"x":803,"y":924}},{"Key":"S_IS_VALID_REGEX","Value":{"x":764,"y":1018}},{"Key":"S_IS_VALID_REGEX1","Value":{"x":1240,"y":798}},{"Key":"S_EXEC_REGEX","Value":{"x":1022,"y":762}},{"Key":"S_CHECK_VALID_VAL","Value":{"x":517,"y":1053}},{"Key":"S_SAVESIZE","Value":{"x":1250,"y":716}},{"Key":"S_SAVESIZE1","Value":{"x":1454,"y":720}},{"Key":"S_GET_SIZE","Value":{"x":1250,"y":716}},{"Key":"S_CHECK_EOF","Value":{"x":1443,"y":708}},{"Key":"S_CHECK_EOF1","Value":{"x":1644,"y":710}},{"Key":"S_REMOVE_TOPBOT","Value":{"x":1632,"y":710}},{"Key":"S_CHECK_EOF2","Value":{"x":1829,"y":714}},{"Key":"S_IF_EOF","Value":{"x":1824,"y":726}},{"Key":"S_REMOVE_TOPBOT1","Value":{"x":2050,"y":721}},{"Key":"S_REMOVE_REST","Value":{"x":2094,"y":540}},{"Key":"S_REMOVE_REST1","Value":{"x":2316,"y":758}},{"Key":"S_REPLACE","Value":{"x":2367,"y":693}},{"Key":"S_REPLACE1","Value":{"x":1406,"y":1051}},{"Key":"S_REMOVE","Value":{"x":1342,"y":1280}},{"Key":"S_RETURN_FALSE1","Value":{"x":2647,"y":404}},{"Key":"S_RETURN_TRUE","Value":{"x":2644,"y":1581}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BACKTO_"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=33
+content_max_height=200
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+</t>
+  </si>
+  <si>
+    <t>while (m_lines.Count &gt; m_findindex + 1)
+{
+    m_lines.RemoveAt(m_lines.Count - 1);
+}
+m_size = 1;
+</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/01/11 21:51:13
+; * pssgEditor version : 0.20.2681.7a2a680482afe3969e88b813259898fe697acf11
+psggfile=@@@
+CfPrepareControl.psgg
+@@@
+xlsfile=@@@
+CfPrepareControl.xlsx
+@@@
+guid=@@@
+28672353-b06d-433b-a85c-dd10e8edd1e8
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":28,"y":171}},{"Key":"S_END","Value":{"x":2914,"y":198}},{"Key":"E_0003","Value":{"x":206,"y":39}},{"Key":"E_0005","Value":{"x":382,"y":43}},{"Key":"E_INOUT","Value":{"x":35,"y":42}},{"Key":"S_RETURN_FALSE","Value":{"x":1005,"y":76}},{"Key":"S_CHECK_EXCEPTION","Value":{"x":521,"y":570}},{"Key":"S_INIT2","Value":{"x":743,"y":569}},{"Key":"S_CHECK_LINES","Value":{"x":42,"y":264}},{"Key":"S_FIND_MATCHLINES","Value":{"x":59,"y":408}},{"Key":"S_TARGET","Value":{"x":953,"y":560}},{"Key":"S_CHECK_BOT","Value":{"x":45,"y":860}},{"Key":"S_STR_W_REGEX","Value":{"x":288,"y":789}},{"Key":"S_ITEM_W_REGEX","Value":{"x":288,"y":993}},{"Key":"S_STR_W_REGEX1","Value":{"x":543,"y":919}},{"Key":"S_CHECK_VALID","Value":{"x":543,"y":919}},{"Key":"S_STR_W_REGEX2","Value":{"x":803,"y":924}},{"Key":"S_IS_VALID_REGEX","Value":{"x":764,"y":1018}},{"Key":"S_IS_VALID_REGEX1","Value":{"x":1240,"y":798}},{"Key":"S_EXEC_REGEX","Value":{"x":1022,"y":762}},{"Key":"S_CHECK_VALID_VAL","Value":{"x":517,"y":1053}},{"Key":"S_SAVESIZE","Value":{"x":1250,"y":716}},{"Key":"S_SAVESIZE1","Value":{"x":1454,"y":720}},{"Key":"S_GET_SIZE","Value":{"x":1250,"y":716}},{"Key":"S_CHECK_EOF","Value":{"x":1443,"y":708}},{"Key":"S_CHECK_EOF1","Value":{"x":1644,"y":710}},{"Key":"S_REMOVE_TOPBOT","Value":{"x":1632,"y":710}},{"Key":"S_CHECK_EOF2","Value":{"x":1829,"y":714}},{"Key":"S_IF_EOF","Value":{"x":1824,"y":726}},{"Key":"S_REMOVE_TOPBOT1","Value":{"x":2050,"y":721}},{"Key":"S_REMOVE_REST","Value":{"x":2094,"y":540}},{"Key":"S_REMOVE_REST1","Value":{"x":2316,"y":758}},{"Key":"S_REPLACE","Value":{"x":2367,"y":693}},{"Key":"S_REPLACE1","Value":{"x":1406,"y":1051}},{"Key":"S_REMOVE","Value":{"x":1342,"y":1280}},{"Key":"S_RETURN_FALSE1","Value":{"x":2647,"y":404}},{"Key":"S_RETURN_TRUE","Value":{"x":2644,"y":1581}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BACKTO_"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=33
+content_max_height=200
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/01/11 21:52:22
+; * pssgEditor version : 0.20.2681.7a2a680482afe3969e88b813259898fe697acf11
+psggfile=@@@
+CfPrepareControl.psgg
+@@@
+xlsfile=@@@
+CfPrepareControl.xlsx
+@@@
+guid=@@@
+28672353-b06d-433b-a85c-dd10e8edd1e8
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":28,"y":171}},{"Key":"S_END","Value":{"x":2914,"y":198}},{"Key":"E_0003","Value":{"x":206,"y":39}},{"Key":"E_0005","Value":{"x":382,"y":43}},{"Key":"E_INOUT","Value":{"x":35,"y":42}},{"Key":"S_RETURN_FALSE","Value":{"x":1005,"y":76}},{"Key":"S_CHECK_EXCEPTION","Value":{"x":521,"y":570}},{"Key":"S_INIT2","Value":{"x":743,"y":569}},{"Key":"S_CHECK_LINES","Value":{"x":42,"y":264}},{"Key":"S_FIND_MATCHLINES","Value":{"x":59,"y":408}},{"Key":"S_TARGET","Value":{"x":953,"y":560}},{"Key":"S_CHECK_BOT","Value":{"x":45,"y":860}},{"Key":"S_STR_W_REGEX","Value":{"x":288,"y":789}},{"Key":"S_ITEM_W_REGEX","Value":{"x":288,"y":993}},{"Key":"S_STR_W_REGEX1","Value":{"x":543,"y":919}},{"Key":"S_CHECK_VALID","Value":{"x":543,"y":919}},{"Key":"S_STR_W_REGEX2","Value":{"x":803,"y":924}},{"Key":"S_IS_VALID_REGEX","Value":{"x":764,"y":1018}},{"Key":"S_IS_VALID_REGEX1","Value":{"x":1240,"y":798}},{"Key":"S_EXEC_REGEX","Value":{"x":1022,"y":762}},{"Key":"S_CHECK_VALID_VAL","Value":{"x":517,"y":1053}},{"Key":"S_SAVESIZE","Value":{"x":1250,"y":716}},{"Key":"S_SAVESIZE1","Value":{"x":1454,"y":720}},{"Key":"S_GET_SIZE","Value":{"x":1250,"y":716}},{"Key":"S_CHECK_EOF","Value":{"x":1443,"y":708}},{"Key":"S_CHECK_EOF1","Value":{"x":1644,"y":710}},{"Key":"S_REMOVE_TOPBOT","Value":{"x":1632,"y":710}},{"Key":"S_CHECK_EOF2","Value":{"x":1829,"y":714}},{"Key":"S_IF_EOF","Value":{"x":1824,"y":726}},{"Key":"S_REMOVE_TOPBOT1","Value":{"x":2050,"y":721}},{"Key":"S_REMOVE_REST","Value":{"x":2094,"y":540}},{"Key":"S_REMOVE_REST1","Value":{"x":2316,"y":758}},{"Key":"S_REPLACE","Value":{"x":2367,"y":693}},{"Key":"S_REPLACE1","Value":{"x":1406,"y":1051}},{"Key":"S_REMOVE","Value":{"x":1342,"y":1280}},{"Key":"S_RETURN_FALSE1","Value":{"x":2647,"y":404}},{"Key":"S_RETURN_TRUE","Value":{"x":2644,"y":1581}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BACKTO_"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=33
+content_max_height=200
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+</t>
+  </si>
+  <si>
+    <t>public string m_state;
+public List&lt;string&gt; m_lines;
+public bool m_bResult;
+public Convert m_parent;</t>
+  </si>
+  <si>
+    <t>int m_findindex;
+List&lt;string&gt; m_targetlines = null;</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/01/11 21:54:51
+; * pssgEditor version : 0.20.2681.7a2a680482afe3969e88b813259898fe697acf11
+psggfile=@@@
+CfPrepareControl.psgg
+@@@
+xlsfile=@@@
+CfPrepareControl.xlsx
+@@@
+guid=@@@
+28672353-b06d-433b-a85c-dd10e8edd1e8
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":28,"y":171}},{"Key":"S_END","Value":{"x":2914,"y":198}},{"Key":"E_0003","Value":{"x":206,"y":39}},{"Key":"E_0005","Value":{"x":382,"y":43}},{"Key":"E_INOUT","Value":{"x":35,"y":42}},{"Key":"S_RETURN_FALSE","Value":{"x":1005,"y":76}},{"Key":"S_CHECK_EXCEPTION","Value":{"x":521,"y":570}},{"Key":"S_INIT2","Value":{"x":743,"y":569}},{"Key":"S_CHECK_LINES","Value":{"x":42,"y":264}},{"Key":"S_FIND_MATCHLINES","Value":{"x":59,"y":408}},{"Key":"S_TARGET","Value":{"x":953,"y":560}},{"Key":"S_CHECK_BOT","Value":{"x":45,"y":860}},{"Key":"S_STR_W_REGEX","Value":{"x":288,"y":789}},{"Key":"S_ITEM_W_REGEX","Value":{"x":288,"y":993}},{"Key":"S_STR_W_REGEX1","Value":{"x":543,"y":919}},{"Key":"S_CHECK_VALID","Value":{"x":543,"y":919}},{"Key":"S_STR_W_REGEX2","Value":{"x":803,"y":924}},{"Key":"S_IS_VALID_REGEX","Value":{"x":764,"y":1018}},{"Key":"S_IS_VALID_REGEX1","Value":{"x":1240,"y":798}},{"Key":"S_EXEC_REGEX","Value":{"x":1022,"y":762}},{"Key":"S_CHECK_VALID_VAL","Value":{"x":517,"y":1053}},{"Key":"S_SAVESIZE","Value":{"x":1250,"y":716}},{"Key":"S_SAVESIZE1","Value":{"x":1454,"y":720}},{"Key":"S_GET_SIZE","Value":{"x":1250,"y":716}},{"Key":"S_CHECK_EOF","Value":{"x":1443,"y":708}},{"Key":"S_CHECK_EOF1","Value":{"x":1644,"y":710}},{"Key":"S_REMOVE_TOPBOT","Value":{"x":1632,"y":710}},{"Key":"S_CHECK_EOF2","Value":{"x":1829,"y":714}},{"Key":"S_IF_EOF","Value":{"x":1824,"y":726}},{"Key":"S_REMOVE_TOPBOT1","Value":{"x":2050,"y":721}},{"Key":"S_REMOVE_REST","Value":{"x":2094,"y":540}},{"Key":"S_REMOVE_REST1","Value":{"x":2316,"y":758}},{"Key":"S_REPLACE","Value":{"x":2367,"y":693}},{"Key":"S_REPLACE1","Value":{"x":1406,"y":1051}},{"Key":"S_REMOVE","Value":{"x":1342,"y":1280}},{"Key":"S_RETURN_FALSE1","Value":{"x":2647,"y":404}},{"Key":"S_RETURN_TRUE","Value":{"x":2644,"y":1581}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BACKTO_"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=33
+content_max_height=200
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+</t>
+  </si>
+  <si>
+    <t>m_lines = StringUtil.ReplaceLines(m_lines, m_findindex, m_size, m_targetlines);
+</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/01/11 21:55:26
+; * pssgEditor version : 0.20.2681.7a2a680482afe3969e88b813259898fe697acf11
+psggfile=@@@
+CfPrepareControl.psgg
+@@@
+xlsfile=@@@
+CfPrepareControl.xlsx
+@@@
+guid=@@@
+28672353-b06d-433b-a85c-dd10e8edd1e8
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":28,"y":171}},{"Key":"S_END","Value":{"x":2914,"y":198}},{"Key":"E_0003","Value":{"x":206,"y":39}},{"Key":"E_0005","Value":{"x":382,"y":43}},{"Key":"E_INOUT","Value":{"x":35,"y":42}},{"Key":"S_RETURN_FALSE","Value":{"x":1005,"y":76}},{"Key":"S_CHECK_EXCEPTION","Value":{"x":521,"y":570}},{"Key":"S_INIT2","Value":{"x":743,"y":569}},{"Key":"S_CHECK_LINES","Value":{"x":42,"y":264}},{"Key":"S_FIND_MATCHLINES","Value":{"x":59,"y":408}},{"Key":"S_TARGET","Value":{"x":953,"y":560}},{"Key":"S_CHECK_BOT","Value":{"x":45,"y":860}},{"Key":"S_STR_W_REGEX","Value":{"x":288,"y":789}},{"Key":"S_ITEM_W_REGEX","Value":{"x":288,"y":993}},{"Key":"S_STR_W_REGEX1","Value":{"x":543,"y":919}},{"Key":"S_CHECK_VALID","Value":{"x":543,"y":919}},{"Key":"S_STR_W_REGEX2","Value":{"x":803,"y":924}},{"Key":"S_IS_VALID_REGEX","Value":{"x":764,"y":1018}},{"Key":"S_IS_VALID_REGEX1","Value":{"x":1240,"y":798}},{"Key":"S_EXEC_REGEX","Value":{"x":1022,"y":762}},{"Key":"S_CHECK_VALID_VAL","Value":{"x":517,"y":1053}},{"Key":"S_SAVESIZE","Value":{"x":1250,"y":716}},{"Key":"S_SAVESIZE1","Value":{"x":1454,"y":720}},{"Key":"S_GET_SIZE","Value":{"x":1250,"y":716}},{"Key":"S_CHECK_EOF","Value":{"x":1443,"y":708}},{"Key":"S_CHECK_EOF1","Value":{"x":1644,"y":710}},{"Key":"S_REMOVE_TOPBOT","Value":{"x":1632,"y":710}},{"Key":"S_CHECK_EOF2","Value":{"x":1829,"y":714}},{"Key":"S_IF_EOF","Value":{"x":1824,"y":726}},{"Key":"S_REMOVE_TOPBOT1","Value":{"x":2050,"y":721}},{"Key":"S_REMOVE_REST","Value":{"x":2094,"y":540}},{"Key":"S_REMOVE_REST1","Value":{"x":2316,"y":758}},{"Key":"S_REPLACE","Value":{"x":2367,"y":693}},{"Key":"S_REPLACE1","Value":{"x":1406,"y":1051}},{"Key":"S_REMOVE","Value":{"x":1342,"y":1280}},{"Key":"S_RETURN_FALSE1","Value":{"x":2647,"y":404}},{"Key":"S_RETURN_TRUE","Value":{"x":2644,"y":1581}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BACKTO_"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=33
+content_max_height=200
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/01/11 21:55:54
+; * pssgEditor version : 0.20.2681.7a2a680482afe3969e88b813259898fe697acf11
+psggfile=@@@
+CfPrepareControl.psgg
+@@@
+xlsfile=@@@
+CfPrepareControl.xlsx
+@@@
+guid=@@@
+28672353-b06d-433b-a85c-dd10e8edd1e8
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":28,"y":171}},{"Key":"S_END","Value":{"x":2914,"y":198}},{"Key":"E_0003","Value":{"x":206,"y":39}},{"Key":"E_0005","Value":{"x":382,"y":43}},{"Key":"E_INOUT","Value":{"x":35,"y":42}},{"Key":"S_RETURN_FALSE","Value":{"x":1005,"y":76}},{"Key":"S_CHECK_EXCEPTION","Value":{"x":521,"y":570}},{"Key":"S_INIT2","Value":{"x":743,"y":569}},{"Key":"S_CHECK_LINES","Value":{"x":42,"y":264}},{"Key":"S_FIND_MATCHLINES","Value":{"x":59,"y":408}},{"Key":"S_TARGET","Value":{"x":953,"y":560}},{"Key":"S_CHECK_BOT","Value":{"x":45,"y":860}},{"Key":"S_STR_W_REGEX","Value":{"x":288,"y":789}},{"Key":"S_ITEM_W_REGEX","Value":{"x":288,"y":993}},{"Key":"S_STR_W_REGEX1","Value":{"x":543,"y":919}},{"Key":"S_CHECK_VALID","Value":{"x":543,"y":919}},{"Key":"S_STR_W_REGEX2","Value":{"x":803,"y":924}},{"Key":"S_IS_VALID_REGEX","Value":{"x":764,"y":1018}},{"Key":"S_IS_VALID_REGEX1","Value":{"x":1240,"y":798}},{"Key":"S_EXEC_REGEX","Value":{"x":1022,"y":762}},{"Key":"S_CHECK_VALID_VAL","Value":{"x":517,"y":1053}},{"Key":"S_SAVESIZE","Value":{"x":1250,"y":716}},{"Key":"S_SAVESIZE1","Value":{"x":1454,"y":720}},{"Key":"S_GET_SIZE","Value":{"x":1250,"y":716}},{"Key":"S_CHECK_EOF","Value":{"x":1443,"y":708}},{"Key":"S_CHECK_EOF1","Value":{"x":1644,"y":710}},{"Key":"S_REMOVE_TOPBOT","Value":{"x":1632,"y":710}},{"Key":"S_CHECK_EOF2","Value":{"x":1829,"y":714}},{"Key":"S_IF_EOF","Value":{"x":1824,"y":726}},{"Key":"S_REMOVE_TOPBOT1","Value":{"x":2050,"y":721}},{"Key":"S_REMOVE_REST","Value":{"x":2094,"y":540}},{"Key":"S_REMOVE_REST1","Value":{"x":2316,"y":758}},{"Key":"S_REPLACE","Value":{"x":2367,"y":693}},{"Key":"S_REPLACE1","Value":{"x":1406,"y":1051}},{"Key":"S_REMOVE","Value":{"x":1342,"y":1280}},{"Key":"S_RETURN_FALSE1","Value":{"x":2647,"y":404}},{"Key":"S_RETURN_TRUE","Value":{"x":2644,"y":1581}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BACKTO_"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=33
+content_max_height=200
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m_itemname = RegexUtil.Get1stMatch(@"[0-9a-zA-Z_\-]+", m_target);
+m_regex = m_target.Substring(m_itemname.Length);
+m_val = m_parent.getString2(m_state, m_itemname);
+  </t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/01/11 21:56:48
+; * pssgEditor version : 0.20.2681.7a2a680482afe3969e88b813259898fe697acf11
+psggfile=@@@
+CfPrepareControl.psgg
+@@@
+xlsfile=@@@
+CfPrepareControl.xlsx
+@@@
+guid=@@@
+28672353-b06d-433b-a85c-dd10e8edd1e8
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":28,"y":171}},{"Key":"S_END","Value":{"x":2914,"y":198}},{"Key":"E_0003","Value":{"x":206,"y":39}},{"Key":"E_0005","Value":{"x":382,"y":43}},{"Key":"E_INOUT","Value":{"x":35,"y":42}},{"Key":"S_RETURN_FALSE","Value":{"x":1005,"y":76}},{"Key":"S_CHECK_EXCEPTION","Value":{"x":521,"y":570}},{"Key":"S_INIT2","Value":{"x":743,"y":569}},{"Key":"S_CHECK_LINES","Value":{"x":42,"y":264}},{"Key":"S_FIND_MATCHLINES","Value":{"x":59,"y":408}},{"Key":"S_TARGET","Value":{"x":953,"y":560}},{"Key":"S_CHECK_BOT","Value":{"x":45,"y":860}},{"Key":"S_STR_W_REGEX","Value":{"x":288,"y":789}},{"Key":"S_ITEM_W_REGEX","Value":{"x":288,"y":993}},{"Key":"S_STR_W_REGEX1","Value":{"x":543,"y":919}},{"Key":"S_CHECK_VALID","Value":{"x":543,"y":919}},{"Key":"S_STR_W_REGEX2","Value":{"x":803,"y":924}},{"Key":"S_IS_VALID_REGEX","Value":{"x":764,"y":1018}},{"Key":"S_IS_VALID_REGEX1","Value":{"x":1240,"y":798}},{"Key":"S_EXEC_REGEX","Value":{"x":1022,"y":762}},{"Key":"S_CHECK_VALID_VAL","Value":{"x":517,"y":1053}},{"Key":"S_SAVESIZE","Value":{"x":1250,"y":716}},{"Key":"S_SAVESIZE1","Value":{"x":1454,"y":720}},{"Key":"S_GET_SIZE","Value":{"x":1250,"y":716}},{"Key":"S_CHECK_EOF","Value":{"x":1443,"y":708}},{"Key":"S_CHECK_EOF1","Value":{"x":1644,"y":710}},{"Key":"S_REMOVE_TOPBOT","Value":{"x":1632,"y":710}},{"Key":"S_CHECK_EOF2","Value":{"x":1829,"y":714}},{"Key":"S_IF_EOF","Value":{"x":1824,"y":726}},{"Key":"S_REMOVE_TOPBOT1","Value":{"x":2050,"y":721}},{"Key":"S_REMOVE_REST","Value":{"x":2094,"y":540}},{"Key":"S_REMOVE_REST1","Value":{"x":2316,"y":758}},{"Key":"S_REPLACE","Value":{"x":2367,"y":693}},{"Key":"S_REPLACE1","Value":{"x":1406,"y":1051}},{"Key":"S_REMOVE","Value":{"x":1342,"y":1280}},{"Key":"S_RETURN_FALSE1","Value":{"x":2647,"y":404}},{"Key":"S_RETURN_TRUE","Value":{"x":2644,"y":1581}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BACKTO_"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=33
+content_max_height=200
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+</t>
+  </si>
+  <si>
+    <t>var b = !string.IsNullOrEmpty(m_regex) &amp;&amp; m_regex.Length &gt; 2;</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/01/11 21:57:25
+; * pssgEditor version : 0.20.2681.7a2a680482afe3969e88b813259898fe697acf11
+psggfile=@@@
+CfPrepareControl.psgg
+@@@
+xlsfile=@@@
+CfPrepareControl.xlsx
+@@@
+guid=@@@
+28672353-b06d-433b-a85c-dd10e8edd1e8
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":28,"y":171}},{"Key":"S_END","Value":{"x":2914,"y":198}},{"Key":"E_0003","Value":{"x":206,"y":39}},{"Key":"E_0005","Value":{"x":382,"y":43}},{"Key":"E_INOUT","Value":{"x":35,"y":42}},{"Key":"S_RETURN_FALSE","Value":{"x":1005,"y":76}},{"Key":"S_CHECK_EXCEPTION","Value":{"x":521,"y":570}},{"Key":"S_INIT2","Value":{"x":743,"y":569}},{"Key":"S_CHECK_LINES","Value":{"x":42,"y":264}},{"Key":"S_FIND_MATCHLINES","Value":{"x":59,"y":408}},{"Key":"S_TARGET","Value":{"x":953,"y":560}},{"Key":"S_CHECK_BOT","Value":{"x":45,"y":860}},{"Key":"S_STR_W_REGEX","Value":{"x":288,"y":789}},{"Key":"S_ITEM_W_REGEX","Value":{"x":288,"y":993}},{"Key":"S_STR_W_REGEX1","Value":{"x":543,"y":919}},{"Key":"S_CHECK_VALID","Value":{"x":543,"y":919}},{"Key":"S_STR_W_REGEX2","Value":{"x":803,"y":924}},{"Key":"S_IS_VALID_REGEX","Value":{"x":764,"y":1018}},{"Key":"S_IS_VALID_REGEX1","Value":{"x":1240,"y":798}},{"Key":"S_EXEC_REGEX","Value":{"x":1022,"y":762}},{"Key":"S_CHECK_VALID_VAL","Value":{"x":517,"y":1053}},{"Key":"S_SAVESIZE","Value":{"x":1250,"y":716}},{"Key":"S_SAVESIZE1","Value":{"x":1454,"y":720}},{"Key":"S_GET_SIZE","Value":{"x":1250,"y":716}},{"Key":"S_CHECK_EOF","Value":{"x":1443,"y":708}},{"Key":"S_CHECK_EOF1","Value":{"x":1644,"y":710}},{"Key":"S_REMOVE_TOPBOT","Value":{"x":1632,"y":710}},{"Key":"S_CHECK_EOF2","Value":{"x":1829,"y":714}},{"Key":"S_IF_EOF","Value":{"x":1824,"y":726}},{"Key":"S_REMOVE_TOPBOT1","Value":{"x":2050,"y":721}},{"Key":"S_REMOVE_REST","Value":{"x":2094,"y":540}},{"Key":"S_REMOVE_REST1","Value":{"x":2316,"y":758}},{"Key":"S_REPLACE","Value":{"x":2367,"y":693}},{"Key":"S_REPLACE1","Value":{"x":1406,"y":1051}},{"Key":"S_REMOVE","Value":{"x":1342,"y":1280}},{"Key":"S_RETURN_FALSE1","Value":{"x":2647,"y":404}},{"Key":"S_RETURN_TRUE","Value":{"x":2644,"y":1581}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BACKTO_"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=33
+content_max_height=200
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+</t>
+  </si>
+  <si>
+    <t>string m_line0;
+bool   m_bValid;
+string m_itemname;
+string m_regex;
+string m_val;
+string m_target;</t>
+  </si>
+  <si>
+    <t>m_line0=m_targetlines[0];
+m_bValid = false;
+m_itemname = string.Empty;
+m_val = string.Empty;
+m_regex = string.Empty;</t>
+  </si>
+  <si>
+    <t>28,14</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/01/11 22:00:16
+; * pssgEditor version : 0.20.2681.7a2a680482afe3969e88b813259898fe697acf11
+psggfile=@@@
+CfPrepareControl.psgg
+@@@
+xlsfile=@@@
+CfPrepareControl.xlsx
+@@@
+guid=@@@
+28672353-b06d-433b-a85c-dd10e8edd1e8
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":28,"y":171}},{"Key":"S_END","Value":{"x":2914,"y":198}},{"Key":"E_0003","Value":{"x":206,"y":39}},{"Key":"E_0005","Value":{"x":382,"y":43}},{"Key":"E_INOUT","Value":{"x":28,"y":14}},{"Key":"S_RETURN_FALSE","Value":{"x":1005,"y":76}},{"Key":"S_CHECK_EXCEPTION","Value":{"x":521,"y":570}},{"Key":"S_INIT2","Value":{"x":743,"y":569}},{"Key":"S_CHECK_LINES","Value":{"x":42,"y":264}},{"Key":"S_FIND_MATCHLINES","Value":{"x":59,"y":408}},{"Key":"S_TARGET","Value":{"x":953,"y":560}},{"Key":"S_CHECK_BOT","Value":{"x":45,"y":860}},{"Key":"S_STR_W_REGEX","Value":{"x":288,"y":789}},{"Key":"S_ITEM_W_REGEX","Value":{"x":288,"y":993}},{"Key":"S_STR_W_REGEX1","Value":{"x":543,"y":919}},{"Key":"S_CHECK_VALID","Value":{"x":543,"y":919}},{"Key":"S_STR_W_REGEX2","Value":{"x":803,"y":924}},{"Key":"S_IS_VALID_REGEX","Value":{"x":764,"y":1018}},{"Key":"S_IS_VALID_REGEX1","Value":{"x":1240,"y":798}},{"Key":"S_EXEC_REGEX","Value":{"x":1022,"y":762}},{"Key":"S_CHECK_VALID_VAL","Value":{"x":517,"y":1053}},{"Key":"S_SAVESIZE","Value":{"x":1250,"y":716}},{"Key":"S_SAVESIZE1","Value":{"x":1454,"y":720}},{"Key":"S_GET_SIZE","Value":{"x":1250,"y":716}},{"Key":"S_CHECK_EOF","Value":{"x":1443,"y":708}},{"Key":"S_CHECK_EOF1","Value":{"x":1644,"y":710}},{"Key":"S_REMOVE_TOPBOT","Value":{"x":1632,"y":710}},{"Key":"S_CHECK_EOF2","Value":{"x":1829,"y":714}},{"Key":"S_IF_EOF","Value":{"x":1824,"y":726}},{"Key":"S_REMOVE_TOPBOT1","Value":{"x":2050,"y":721}},{"Key":"S_REMOVE_REST","Value":{"x":2094,"y":540}},{"Key":"S_REMOVE_REST1","Value":{"x":2316,"y":758}},{"Key":"S_REPLACE","Value":{"x":2367,"y":693}},{"Key":"S_REPLACE1","Value":{"x":1406,"y":1051}},{"Key":"S_REMOVE","Value":{"x":1342,"y":1280}},{"Key":"S_RETURN_FALSE1","Value":{"x":2647,"y":404}},{"Key":"S_RETURN_TRUE","Value":{"x":2644,"y":1581}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BACKTO_"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=33
+content_max_height=200
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+</t>
+  </si>
+  <si>
+    <t>if (m_regex[0]=='/' &amp;&amp; m_regex[m_regex.Length-1]=='/')
+{
+    m_regex = m_regex.Substring(1);
+    m_regex = m_regex.Substring(0,m_regex.Length - 1);
+    var match = RegexUtil.Get1stMatch(m_regex,val);
+    m_bValid = !string.IsNullOrEmpty(match);
+}
+else
+{
+    m_bValid  = false;
+    throw new SystemException("{59858294-6BCF-45B6-B441-076A5A6041D8}\n" + line0);
+}
+</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/01/11 22:03:50
+; * pssgEditor version : 0.20.2681.7a2a680482afe3969e88b813259898fe697acf11
+psggfile=@@@
+CfPrepareControl.psgg
+@@@
+xlsfile=@@@
+CfPrepareControl.xlsx
+@@@
+guid=@@@
+28672353-b06d-433b-a85c-dd10e8edd1e8
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":28,"y":171}},{"Key":"S_END","Value":{"x":2914,"y":198}},{"Key":"E_0003","Value":{"x":206,"y":39}},{"Key":"E_0005","Value":{"x":382,"y":43}},{"Key":"E_INOUT","Value":{"x":28,"y":14}},{"Key":"S_RETURN_FALSE","Value":{"x":1005,"y":76}},{"Key":"S_CHECK_EXCEPTION","Value":{"x":521,"y":570}},{"Key":"S_INIT2","Value":{"x":743,"y":569}},{"Key":"S_CHECK_LINES","Value":{"x":42,"y":264}},{"Key":"S_FIND_MATCHLINES","Value":{"x":59,"y":408}},{"Key":"S_TARGET","Value":{"x":953,"y":560}},{"Key":"S_CHECK_BOT","Value":{"x":45,"y":860}},{"Key":"S_STR_W_REGEX","Value":{"x":288,"y":789}},{"Key":"S_ITEM_W_REGEX","Value":{"x":288,"y":993}},{"Key":"S_STR_W_REGEX1","Value":{"x":543,"y":919}},{"Key":"S_CHECK_VALID","Value":{"x":543,"y":919}},{"Key":"S_STR_W_REGEX2","Value":{"x":803,"y":924}},{"Key":"S_IS_VALID_REGEX","Value":{"x":764,"y":1018}},{"Key":"S_IS_VALID_REGEX1","Value":{"x":1240,"y":798}},{"Key":"S_EXEC_REGEX","Value":{"x":1022,"y":762}},{"Key":"S_CHECK_VALID_VAL","Value":{"x":517,"y":1053}},{"Key":"S_SAVESIZE","Value":{"x":1250,"y":716}},{"Key":"S_SAVESIZE1","Value":{"x":1454,"y":720}},{"Key":"S_GET_SIZE","Value":{"x":1250,"y":716}},{"Key":"S_CHECK_EOF","Value":{"x":1443,"y":708}},{"Key":"S_CHECK_EOF1","Value":{"x":1644,"y":710}},{"Key":"S_REMOVE_TOPBOT","Value":{"x":1632,"y":710}},{"Key":"S_CHECK_EOF2","Value":{"x":1829,"y":714}},{"Key":"S_IF_EOF","Value":{"x":1824,"y":726}},{"Key":"S_REMOVE_TOPBOT1","Value":{"x":2050,"y":721}},{"Key":"S_REMOVE_REST","Value":{"x":2094,"y":540}},{"Key":"S_REMOVE_REST1","Value":{"x":2316,"y":758}},{"Key":"S_REPLACE","Value":{"x":2367,"y":693}},{"Key":"S_REPLACE1","Value":{"x":1406,"y":1051}},{"Key":"S_REMOVE","Value":{"x":1342,"y":1280}},{"Key":"S_RETURN_FALSE1","Value":{"x":2647,"y":404}},{"Key":"S_RETURN_TRUE","Value":{"x":2644,"y":1581}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BACKTO_"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=33
+content_max_height=200
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+</t>
+  </si>
+  <si>
+    <t>if (m_regex[0]=='/' &amp;&amp; m_regex[m_regex.Length-1]=='/')
+{
+    m_regex = m_regex.Substring(1);
+    m_regex = m_regex.Substring(0,m_regex.Length - 1);
+    var match = RegexUtil.Get1stMatch(m_regex,m_val);
+    m_bValid = !string.IsNullOrEmpty(match);
+}
+else
+{
+    m_bValid  = false;
+    throw new SystemException("{59858294-6BCF-45B6-B441-076A5A6041D8}\n" + m_line0);
+}
+</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/01/11 22:04:16
+; * pssgEditor version : 0.20.2681.7a2a680482afe3969e88b813259898fe697acf11
+psggfile=@@@
+CfPrepareControl.psgg
+@@@
+xlsfile=@@@
+CfPrepareControl.xlsx
+@@@
+guid=@@@
+28672353-b06d-433b-a85c-dd10e8edd1e8
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":28,"y":171}},{"Key":"S_END","Value":{"x":2914,"y":198}},{"Key":"E_0003","Value":{"x":206,"y":39}},{"Key":"E_0005","Value":{"x":382,"y":43}},{"Key":"E_INOUT","Value":{"x":28,"y":14}},{"Key":"S_RETURN_FALSE","Value":{"x":1005,"y":76}},{"Key":"S_CHECK_EXCEPTION","Value":{"x":521,"y":570}},{"Key":"S_INIT2","Value":{"x":743,"y":569}},{"Key":"S_CHECK_LINES","Value":{"x":42,"y":264}},{"Key":"S_FIND_MATCHLINES","Value":{"x":59,"y":408}},{"Key":"S_TARGET","Value":{"x":953,"y":560}},{"Key":"S_CHECK_BOT","Value":{"x":45,"y":860}},{"Key":"S_STR_W_REGEX","Value":{"x":288,"y":789}},{"Key":"S_ITEM_W_REGEX","Value":{"x":288,"y":993}},{"Key":"S_STR_W_REGEX1","Value":{"x":543,"y":919}},{"Key":"S_CHECK_VALID","Value":{"x":543,"y":919}},{"Key":"S_STR_W_REGEX2","Value":{"x":803,"y":924}},{"Key":"S_IS_VALID_REGEX","Value":{"x":764,"y":1018}},{"Key":"S_IS_VALID_REGEX1","Value":{"x":1240,"y":798}},{"Key":"S_EXEC_REGEX","Value":{"x":1022,"y":762}},{"Key":"S_CHECK_VALID_VAL","Value":{"x":517,"y":1053}},{"Key":"S_SAVESIZE","Value":{"x":1250,"y":716}},{"Key":"S_SAVESIZE1","Value":{"x":1454,"y":720}},{"Key":"S_GET_SIZE","Value":{"x":1250,"y":716}},{"Key":"S_CHECK_EOF","Value":{"x":1443,"y":708}},{"Key":"S_CHECK_EOF1","Value":{"x":1644,"y":710}},{"Key":"S_REMOVE_TOPBOT","Value":{"x":1632,"y":710}},{"Key":"S_CHECK_EOF2","Value":{"x":1829,"y":714}},{"Key":"S_IF_EOF","Value":{"x":1824,"y":726}},{"Key":"S_REMOVE_TOPBOT1","Value":{"x":2050,"y":721}},{"Key":"S_REMOVE_REST","Value":{"x":2094,"y":540}},{"Key":"S_REMOVE_REST1","Value":{"x":2316,"y":758}},{"Key":"S_REPLACE","Value":{"x":2367,"y":693}},{"Key":"S_REPLACE1","Value":{"x":1406,"y":1051}},{"Key":"S_REMOVE","Value":{"x":1342,"y":1280}},{"Key":"S_RETURN_FALSE1","Value":{"x":2647,"y":404}},{"Key":"S_RETURN_TRUE","Value":{"x":2644,"y":1581}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BACKTO_"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=33
+content_max_height=200
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+</t>
+  </si>
+  <si>
+    <t>m_size = m_targetlines.Count;</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/01/11 22:05:54
+; * pssgEditor version : 0.20.2681.7a2a680482afe3969e88b813259898fe697acf11
+psggfile=@@@
+CfPrepareControl.psgg
+@@@
+xlsfile=@@@
+CfPrepareControl.xlsx
+@@@
+guid=@@@
+28672353-b06d-433b-a85c-dd10e8edd1e8
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":28,"y":171}},{"Key":"S_END","Value":{"x":2914,"y":198}},{"Key":"E_0003","Value":{"x":206,"y":39}},{"Key":"E_0005","Value":{"x":382,"y":43}},{"Key":"E_INOUT","Value":{"x":28,"y":14}},{"Key":"S_RETURN_FALSE","Value":{"x":1005,"y":76}},{"Key":"S_CHECK_EXCEPTION","Value":{"x":521,"y":570}},{"Key":"S_INIT2","Value":{"x":743,"y":569}},{"Key":"S_CHECK_LINES","Value":{"x":42,"y":264}},{"Key":"S_FIND_MATCHLINES","Value":{"x":59,"y":408}},{"Key":"S_TARGET","Value":{"x":953,"y":560}},{"Key":"S_CHECK_BOT","Value":{"x":45,"y":860}},{"Key":"S_STR_W_REGEX","Value":{"x":288,"y":789}},{"Key":"S_ITEM_W_REGEX","Value":{"x":288,"y":993}},{"Key":"S_STR_W_REGEX1","Value":{"x":543,"y":919}},{"Key":"S_CHECK_VALID","Value":{"x":543,"y":919}},{"Key":"S_STR_W_REGEX2","Value":{"x":803,"y":924}},{"Key":"S_IS_VALID_REGEX","Value":{"x":764,"y":1018}},{"Key":"S_IS_VALID_REGEX1","Value":{"x":1240,"y":798}},{"Key":"S_EXEC_REGEX","Value":{"x":1022,"y":762}},{"Key":"S_CHECK_VALID_VAL","Value":{"x":517,"y":1053}},{"Key":"S_SAVESIZE","Value":{"x":1250,"y":716}},{"Key":"S_SAVESIZE1","Value":{"x":1454,"y":720}},{"Key":"S_GET_SIZE","Value":{"x":1250,"y":716}},{"Key":"S_CHECK_EOF","Value":{"x":1443,"y":708}},{"Key":"S_CHECK_EOF1","Value":{"x":1644,"y":710}},{"Key":"S_REMOVE_TOPBOT","Value":{"x":1632,"y":710}},{"Key":"S_CHECK_EOF2","Value":{"x":1829,"y":714}},{"Key":"S_IF_EOF","Value":{"x":1824,"y":726}},{"Key":"S_REMOVE_TOPBOT1","Value":{"x":2050,"y":721}},{"Key":"S_REMOVE_REST","Value":{"x":2094,"y":540}},{"Key":"S_REMOVE_REST1","Value":{"x":2316,"y":758}},{"Key":"S_REPLACE","Value":{"x":2367,"y":693}},{"Key":"S_REPLACE1","Value":{"x":1406,"y":1051}},{"Key":"S_REMOVE","Value":{"x":1342,"y":1280}},{"Key":"S_RETURN_FALSE1","Value":{"x":2647,"y":404}},{"Key":"S_RETURN_TRUE","Value":{"x":2644,"y":1581}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BACKTO_"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=33
+content_max_height=200
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+</t>
+  </si>
+  <si>
+    <t>m_targetlines==null
+?</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/01/11 22:06:59
+; * pssgEditor version : 0.20.2681.7a2a680482afe3969e88b813259898fe697acf11
+psggfile=@@@
+CfPrepareControl.psgg
+@@@
+xlsfile=@@@
+CfPrepareControl.xlsx
+@@@
+guid=@@@
+28672353-b06d-433b-a85c-dd10e8edd1e8
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited the branch of the state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":28,"y":171}},{"Key":"S_END","Value":{"x":2914,"y":198}},{"Key":"E_0003","Value":{"x":206,"y":39}},{"Key":"E_0005","Value":{"x":382,"y":43}},{"Key":"E_INOUT","Value":{"x":28,"y":14}},{"Key":"S_RETURN_FALSE","Value":{"x":1005,"y":76}},{"Key":"S_CHECK_EXCEPTION","Value":{"x":521,"y":570}},{"Key":"S_INIT2","Value":{"x":743,"y":569}},{"Key":"S_CHECK_LINES","Value":{"x":42,"y":264}},{"Key":"S_FIND_MATCHLINES","Value":{"x":59,"y":408}},{"Key":"S_TARGET","Value":{"x":953,"y":560}},{"Key":"S_CHECK_BOT","Value":{"x":45,"y":860}},{"Key":"S_STR_W_REGEX","Value":{"x":288,"y":789}},{"Key":"S_ITEM_W_REGEX","Value":{"x":288,"y":993}},{"Key":"S_STR_W_REGEX1","Value":{"x":543,"y":919}},{"Key":"S_CHECK_VALID","Value":{"x":543,"y":919}},{"Key":"S_STR_W_REGEX2","Value":{"x":803,"y":924}},{"Key":"S_IS_VALID_REGEX","Value":{"x":764,"y":1018}},{"Key":"S_IS_VALID_REGEX1","Value":{"x":1240,"y":798}},{"Key":"S_EXEC_REGEX","Value":{"x":1022,"y":762}},{"Key":"S_CHECK_VALID_VAL","Value":{"x":517,"y":1053}},{"Key":"S_SAVESIZE","Value":{"x":1250,"y":716}},{"Key":"S_SAVESIZE1","Value":{"x":1454,"y":720}},{"Key":"S_GET_SIZE","Value":{"x":1250,"y":716}},{"Key":"S_CHECK_EOF","Value":{"x":1443,"y":708}},{"Key":"S_CHECK_EOF1","Value":{"x":1644,"y":710}},{"Key":"S_REMOVE_TOPBOT","Value":{"x":1632,"y":710}},{"Key":"S_CHECK_EOF2","Value":{"x":1829,"y":714}},{"Key":"S_IF_EOF","Value":{"x":1824,"y":726}},{"Key":"S_REMOVE_TOPBOT1","Value":{"x":2050,"y":721}},{"Key":"S_REMOVE_REST","Value":{"x":2094,"y":540}},{"Key":"S_REMOVE_REST1","Value":{"x":2316,"y":758}},{"Key":"S_REPLACE","Value":{"x":2367,"y":693}},{"Key":"S_REPLACE1","Value":{"x":1406,"y":1051}},{"Key":"S_REMOVE","Value":{"x":1342,"y":1280}},{"Key":"S_RETURN_FALSE1","Value":{"x":2647,"y":404}},{"Key":"S_RETURN_TRUE","Value":{"x":2644,"y":1581}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BACKTO_"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=33
+content_max_height=200
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/01/11 22:07:09
+; * pssgEditor version : 0.20.2681.7a2a680482afe3969e88b813259898fe697acf11
+psggfile=@@@
+CfPrepareControl.psgg
+@@@
+xlsfile=@@@
+CfPrepareControl.xlsx
+@@@
+guid=@@@
+28672353-b06d-433b-a85c-dd10e8edd1e8
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited the branch of the state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":28,"y":171}},{"Key":"S_END","Value":{"x":2914,"y":198}},{"Key":"E_0003","Value":{"x":206,"y":39}},{"Key":"E_0005","Value":{"x":382,"y":43}},{"Key":"E_INOUT","Value":{"x":28,"y":14}},{"Key":"S_RETURN_FALSE","Value":{"x":1005,"y":76}},{"Key":"S_CHECK_EXCEPTION","Value":{"x":521,"y":570}},{"Key":"S_INIT2","Value":{"x":743,"y":569}},{"Key":"S_CHECK_LINES","Value":{"x":42,"y":264}},{"Key":"S_FIND_MATCHLINES","Value":{"x":59,"y":408}},{"Key":"S_TARGET","Value":{"x":953,"y":560}},{"Key":"S_CHECK_BOT","Value":{"x":45,"y":860}},{"Key":"S_STR_W_REGEX","Value":{"x":288,"y":789}},{"Key":"S_ITEM_W_REGEX","Value":{"x":288,"y":993}},{"Key":"S_STR_W_REGEX1","Value":{"x":543,"y":919}},{"Key":"S_CHECK_VALID","Value":{"x":543,"y":919}},{"Key":"S_STR_W_REGEX2","Value":{"x":803,"y":924}},{"Key":"S_IS_VALID_REGEX","Value":{"x":764,"y":1018}},{"Key":"S_IS_VALID_REGEX1","Value":{"x":1240,"y":798}},{"Key":"S_EXEC_REGEX","Value":{"x":1022,"y":762}},{"Key":"S_CHECK_VALID_VAL","Value":{"x":517,"y":1053}},{"Key":"S_SAVESIZE","Value":{"x":1250,"y":716}},{"Key":"S_SAVESIZE1","Value":{"x":1454,"y":720}},{"Key":"S_GET_SIZE","Value":{"x":1250,"y":716}},{"Key":"S_CHECK_EOF","Value":{"x":1443,"y":708}},{"Key":"S_CHECK_EOF1","Value":{"x":1644,"y":710}},{"Key":"S_REMOVE_TOPBOT","Value":{"x":1632,"y":710}},{"Key":"S_CHECK_EOF2","Value":{"x":1829,"y":714}},{"Key":"S_IF_EOF","Value":{"x":1824,"y":726}},{"Key":"S_REMOVE_TOPBOT1","Value":{"x":2050,"y":721}},{"Key":"S_REMOVE_REST","Value":{"x":2094,"y":540}},{"Key":"S_REMOVE_REST1","Value":{"x":2316,"y":758}},{"Key":"S_REPLACE","Value":{"x":2367,"y":693}},{"Key":"S_REPLACE1","Value":{"x":1406,"y":1051}},{"Key":"S_REMOVE","Value":{"x":1342,"y":1280}},{"Key":"S_RETURN_FALSE1","Value":{"x":2647,"y":404}},{"Key":"S_RETURN_TRUE","Value":{"x":2644,"y":1581}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BACKTO_"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=33
+content_max_height=200
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+</t>
+  </si>
+  <si>
+    <t>var dqw= RegexUtil.Get1stMatch(@"\x22.*\x22",m_target);
+m_val = dqw.Trim('\x22');
+m_regex = m_target.Substring(dqw.Length);</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/01/11 22:07:59
+; * pssgEditor version : 0.20.2681.7a2a680482afe3969e88b813259898fe697acf11
+psggfile=@@@
+CfPrepareControl.psgg
+@@@
+xlsfile=@@@
+CfPrepareControl.xlsx
+@@@
+guid=@@@
+28672353-b06d-433b-a85c-dd10e8edd1e8
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":28,"y":171}},{"Key":"S_END","Value":{"x":2914,"y":198}},{"Key":"E_0003","Value":{"x":206,"y":39}},{"Key":"E_0005","Value":{"x":382,"y":43}},{"Key":"E_INOUT","Value":{"x":28,"y":14}},{"Key":"S_RETURN_FALSE","Value":{"x":1005,"y":76}},{"Key":"S_CHECK_EXCEPTION","Value":{"x":521,"y":570}},{"Key":"S_INIT2","Value":{"x":743,"y":569}},{"Key":"S_CHECK_LINES","Value":{"x":42,"y":264}},{"Key":"S_FIND_MATCHLINES","Value":{"x":59,"y":408}},{"Key":"S_TARGET","Value":{"x":953,"y":560}},{"Key":"S_CHECK_BOT","Value":{"x":45,"y":860}},{"Key":"S_STR_W_REGEX","Value":{"x":288,"y":789}},{"Key":"S_ITEM_W_REGEX","Value":{"x":288,"y":993}},{"Key":"S_STR_W_REGEX1","Value":{"x":543,"y":919}},{"Key":"S_CHECK_VALID","Value":{"x":543,"y":919}},{"Key":"S_STR_W_REGEX2","Value":{"x":803,"y":924}},{"Key":"S_IS_VALID_REGEX","Value":{"x":764,"y":1018}},{"Key":"S_IS_VALID_REGEX1","Value":{"x":1240,"y":798}},{"Key":"S_EXEC_REGEX","Value":{"x":1022,"y":762}},{"Key":"S_CHECK_VALID_VAL","Value":{"x":517,"y":1053}},{"Key":"S_SAVESIZE","Value":{"x":1250,"y":716}},{"Key":"S_SAVESIZE1","Value":{"x":1454,"y":720}},{"Key":"S_GET_SIZE","Value":{"x":1250,"y":716}},{"Key":"S_CHECK_EOF","Value":{"x":1443,"y":708}},{"Key":"S_CHECK_EOF1","Value":{"x":1644,"y":710}},{"Key":"S_REMOVE_TOPBOT","Value":{"x":1632,"y":710}},{"Key":"S_CHECK_EOF2","Value":{"x":1829,"y":714}},{"Key":"S_IF_EOF","Value":{"x":1824,"y":726}},{"Key":"S_REMOVE_TOPBOT1","Value":{"x":2050,"y":721}},{"Key":"S_REMOVE_REST","Value":{"x":2094,"y":540}},{"Key":"S_REMOVE_REST1","Value":{"x":2316,"y":758}},{"Key":"S_REPLACE","Value":{"x":2367,"y":693}},{"Key":"S_REPLACE1","Value":{"x":1406,"y":1051}},{"Key":"S_REMOVE","Value":{"x":1342,"y":1280}},{"Key":"S_RETURN_FALSE1","Value":{"x":2647,"y":404}},{"Key":"S_RETURN_TRUE","Value":{"x":2644,"y":1581}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BACKTO_"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=33
+content_max_height=200
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+</t>
+  </si>
+  <si>
+    <t>m_bEOF = (m_targetlines[m_targetlines.Count - 1].ToLower().Contains("eof&gt;&gt;&gt;"));</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/01/11 22:08:39
+; * pssgEditor version : 0.20.2681.7a2a680482afe3969e88b813259898fe697acf11
+psggfile=@@@
+CfPrepareControl.psgg
+@@@
+xlsfile=@@@
+CfPrepareControl.xlsx
+@@@
+guid=@@@
+28672353-b06d-433b-a85c-dd10e8edd1e8
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":28,"y":171}},{"Key":"S_END","Value":{"x":2914,"y":198}},{"Key":"E_0003","Value":{"x":206,"y":39}},{"Key":"E_0005","Value":{"x":382,"y":43}},{"Key":"E_INOUT","Value":{"x":28,"y":14}},{"Key":"S_RETURN_FALSE","Value":{"x":1005,"y":76}},{"Key":"S_CHECK_EXCEPTION","Value":{"x":521,"y":570}},{"Key":"S_INIT2","Value":{"x":743,"y":569}},{"Key":"S_CHECK_LINES","Value":{"x":42,"y":264}},{"Key":"S_FIND_MATCHLINES","Value":{"x":59,"y":408}},{"Key":"S_TARGET","Value":{"x":953,"y":560}},{"Key":"S_CHECK_BOT","Value":{"x":45,"y":860}},{"Key":"S_STR_W_REGEX","Value":{"x":288,"y":789}},{"Key":"S_ITEM_W_REGEX","Value":{"x":288,"y":993}},{"Key":"S_STR_W_REGEX1","Value":{"x":543,"y":919}},{"Key":"S_CHECK_VALID","Value":{"x":543,"y":919}},{"Key":"S_STR_W_REGEX2","Value":{"x":803,"y":924}},{"Key":"S_IS_VALID_REGEX","Value":{"x":764,"y":1018}},{"Key":"S_IS_VALID_REGEX1","Value":{"x":1240,"y":798}},{"Key":"S_EXEC_REGEX","Value":{"x":1022,"y":762}},{"Key":"S_CHECK_VALID_VAL","Value":{"x":517,"y":1053}},{"Key":"S_SAVESIZE","Value":{"x":1250,"y":716}},{"Key":"S_SAVESIZE1","Value":{"x":1454,"y":720}},{"Key":"S_GET_SIZE","Value":{"x":1250,"y":716}},{"Key":"S_CHECK_EOF","Value":{"x":1443,"y":708}},{"Key":"S_CHECK_EOF1","Value":{"x":1644,"y":710}},{"Key":"S_REMOVE_TOPBOT","Value":{"x":1632,"y":710}},{"Key":"S_CHECK_EOF2","Value":{"x":1829,"y":714}},{"Key":"S_IF_EOF","Value":{"x":1824,"y":726}},{"Key":"S_REMOVE_TOPBOT1","Value":{"x":2050,"y":721}},{"Key":"S_REMOVE_REST","Value":{"x":2094,"y":540}},{"Key":"S_REMOVE_REST1","Value":{"x":2316,"y":758}},{"Key":"S_REPLACE","Value":{"x":2367,"y":693}},{"Key":"S_REPLACE1","Value":{"x":1406,"y":1051}},{"Key":"S_REMOVE","Value":{"x":1342,"y":1280}},{"Key":"S_RETURN_FALSE1","Value":{"x":2647,"y":404}},{"Key":"S_RETURN_TRUE","Value":{"x":2644,"y":1581}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BACKTO_"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=33
+content_max_height=200
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+</t>
+  </si>
+  <si>
+    <t>m_bValid = !string.IsNullOrEmpty(m_val);</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/01/11 22:09:09
+; * pssgEditor version : 0.20.2681.7a2a680482afe3969e88b813259898fe697acf11
+psggfile=@@@
+CfPrepareControl.psgg
+@@@
+xlsfile=@@@
+CfPrepareControl.xlsx
+@@@
+guid=@@@
+28672353-b06d-433b-a85c-dd10e8edd1e8
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":28,"y":171}},{"Key":"S_END","Value":{"x":2914,"y":198}},{"Key":"E_0003","Value":{"x":206,"y":39}},{"Key":"E_0005","Value":{"x":382,"y":43}},{"Key":"E_INOUT","Value":{"x":28,"y":14}},{"Key":"S_RETURN_FALSE","Value":{"x":1005,"y":76}},{"Key":"S_CHECK_EXCEPTION","Value":{"x":521,"y":570}},{"Key":"S_INIT2","Value":{"x":743,"y":569}},{"Key":"S_CHECK_LINES","Value":{"x":42,"y":264}},{"Key":"S_FIND_MATCHLINES","Value":{"x":59,"y":408}},{"Key":"S_TARGET","Value":{"x":953,"y":560}},{"Key":"S_CHECK_BOT","Value":{"x":45,"y":860}},{"Key":"S_STR_W_REGEX","Value":{"x":288,"y":789}},{"Key":"S_ITEM_W_REGEX","Value":{"x":288,"y":993}},{"Key":"S_STR_W_REGEX1","Value":{"x":543,"y":919}},{"Key":"S_CHECK_VALID","Value":{"x":543,"y":919}},{"Key":"S_STR_W_REGEX2","Value":{"x":803,"y":924}},{"Key":"S_IS_VALID_REGEX","Value":{"x":764,"y":1018}},{"Key":"S_IS_VALID_REGEX1","Value":{"x":1240,"y":798}},{"Key":"S_EXEC_REGEX","Value":{"x":1022,"y":762}},{"Key":"S_CHECK_VALID_VAL","Value":{"x":517,"y":1053}},{"Key":"S_SAVESIZE","Value":{"x":1250,"y":716}},{"Key":"S_SAVESIZE1","Value":{"x":1454,"y":720}},{"Key":"S_GET_SIZE","Value":{"x":1250,"y":716}},{"Key":"S_CHECK_EOF","Value":{"x":1443,"y":708}},{"Key":"S_CHECK_EOF1","Value":{"x":1644,"y":710}},{"Key":"S_REMOVE_TOPBOT","Value":{"x":1632,"y":710}},{"Key":"S_CHECK_EOF2","Value":{"x":1829,"y":714}},{"Key":"S_IF_EOF","Value":{"x":1824,"y":726}},{"Key":"S_REMOVE_TOPBOT1","Value":{"x":2050,"y":721}},{"Key":"S_REMOVE_REST","Value":{"x":2094,"y":540}},{"Key":"S_REMOVE_REST1","Value":{"x":2316,"y":758}},{"Key":"S_REPLACE","Value":{"x":2367,"y":693}},{"Key":"S_REPLACE1","Value":{"x":1406,"y":1051}},{"Key":"S_REMOVE","Value":{"x":1342,"y":1280}},{"Key":"S_RETURN_FALSE1","Value":{"x":2647,"y":404}},{"Key":"S_RETURN_TRUE","Value":{"x":2644,"y":1581}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BACKTO_"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=33
+content_max_height=200
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+</t>
+  </si>
+  <si>
+    <t>2070,553</t>
+  </si>
+  <si>
+    <t>2334,724</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/01/11 22:09:37
+; * pssgEditor version : 0.20.2681.7a2a680482afe3969e88b813259898fe697acf11
+psggfile=@@@
+CfPrepareControl.psgg
+@@@
+xlsfile=@@@
+CfPrepareControl.xlsx
+@@@
+guid=@@@
+28672353-b06d-433b-a85c-dd10e8edd1e8
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Moved a state
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":28,"y":171}},{"Key":"S_END","Value":{"x":2914,"y":198}},{"Key":"E_0003","Value":{"x":206,"y":39}},{"Key":"E_0005","Value":{"x":382,"y":43}},{"Key":"E_INOUT","Value":{"x":28,"y":14}},{"Key":"S_RETURN_FALSE","Value":{"x":1005,"y":76}},{"Key":"S_CHECK_EXCEPTION","Value":{"x":521,"y":570}},{"Key":"S_INIT2","Value":{"x":743,"y":569}},{"Key":"S_CHECK_LINES","Value":{"x":42,"y":264}},{"Key":"S_FIND_MATCHLINES","Value":{"x":59,"y":408}},{"Key":"S_TARGET","Value":{"x":953,"y":560}},{"Key":"S_CHECK_BOT","Value":{"x":45,"y":860}},{"Key":"S_STR_W_REGEX","Value":{"x":288,"y":789}},{"Key":"S_ITEM_W_REGEX","Value":{"x":288,"y":993}},{"Key":"S_STR_W_REGEX1","Value":{"x":543,"y":919}},{"Key":"S_CHECK_VALID","Value":{"x":543,"y":919}},{"Key":"S_STR_W_REGEX2","Value":{"x":803,"y":924}},{"Key":"S_IS_VALID_REGEX","Value":{"x":764,"y":1018}},{"Key":"S_IS_VALID_REGEX1","Value":{"x":1240,"y":798}},{"Key":"S_EXEC_REGEX","Value":{"x":1022,"y":762}},{"Key":"S_CHECK_VALID_VAL","Value":{"x":517,"y":1053}},{"Key":"S_SAVESIZE","Value":{"x":1250,"y":716}},{"Key":"S_SAVESIZE1","Value":{"x":1454,"y":720}},{"Key":"S_GET_SIZE","Value":{"x":1250,"y":716}},{"Key":"S_CHECK_EOF","Value":{"x":1443,"y":708}},{"Key":"S_CHECK_EOF1","Value":{"x":1644,"y":710}},{"Key":"S_REMOVE_TOPBOT","Value":{"x":1632,"y":710}},{"Key":"S_CHECK_EOF2","Value":{"x":1829,"y":714}},{"Key":"S_IF_EOF","Value":{"x":1824,"y":726}},{"Key":"S_REMOVE_TOPBOT1","Value":{"x":2050,"y":721}},{"Key":"S_REMOVE_REST","Value":{"x":2070,"y":553.3334}},{"Key":"S_REMOVE_REST1","Value":{"x":2316,"y":758}},{"Key":"S_REPLACE","Value":{"x":2333.6665,"y":723.6667}},{"Key":"S_REPLACE1","Value":{"x":1406,"y":1051}},{"Key":"S_REMOVE","Value":{"x":1342,"y":1280}},{"Key":"S_RETURN_FALSE1","Value":{"x":2647,"y":404}},{"Key":"S_RETURN_TRUE","Value":{"x":2644,"y":1581}}]}]
 @@@
 linecolor_data=@@@
 [{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BACKTO_"}]
@@ -1495,7 +3411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:AB35"/>
   <sheetViews>
     <sheetView tabSelected="false" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -1555,6 +3471,39 @@
       <c r="Q1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="2" s="4" customFormat="true">
       <c r="A2" s="3"/>
@@ -1606,6 +3555,39 @@
       <c r="Q2" s="3" t="s">
         <v>111</v>
       </c>
+      <c r="R2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="3" s="7" customFormat="true">
       <c r="A3" s="5"/>
@@ -1631,6 +3613,27 @@
       </c>
       <c r="Q3" s="5" t="s">
         <v>112</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="4" s="7" customFormat="true">
@@ -1674,6 +3677,36 @@
       </c>
       <c r="N6" s="8" t="s">
         <v>96</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="U6" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="V6" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="W6" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y6" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z6" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA6" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB6" s="8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" s="11" customFormat="true">
@@ -1692,13 +3725,13 @@
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10" t="s">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>53</v>
+        <v>201</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>72</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" s="11" customFormat="true">
@@ -1716,6 +3749,12 @@
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
+      <c r="U10" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="V10" s="10" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="11" s="11" customFormat="true">
       <c r="A11" s="10"/>
@@ -1735,6 +3774,15 @@
       <c r="O12" s="10" t="s">
         <v>101</v>
       </c>
+      <c r="R12" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="S12" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="V12" s="10" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="13" s="11" customFormat="true" ht="18.75" customHeight="true">
       <c r="A13" s="10"/>
@@ -1754,16 +3802,37 @@
         <v>81</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>84</v>
+        <v>211</v>
       </c>
       <c r="N13" s="10" t="s">
         <v>97</v>
       </c>
       <c r="P13" s="10" t="s">
-        <v>108</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>113</v>
+        <v>206</v>
+      </c>
+      <c r="T13" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="U13" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="W13" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y13" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z13" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA13" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="AB13" s="10" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="14" s="11" customFormat="true">
@@ -1908,6 +3977,18 @@
       <c r="O29" s="12" t="s">
         <v>102</v>
       </c>
+      <c r="R29" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="S29" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="T29" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="X29" s="12" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="30" s="13" customFormat="true">
       <c r="A30" s="12"/>
@@ -1918,13 +3999,25 @@
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
       <c r="H30" s="12" t="s">
-        <v>62</v>
+        <v>220</v>
       </c>
       <c r="M30" s="12" t="s">
         <v>88</v>
       </c>
       <c r="O30" s="12" t="s">
         <v>103</v>
+      </c>
+      <c r="R30" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="S30" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="T30" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="X30" s="12" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="31" s="15" customFormat="true" ht="18.75" customHeight="true">
@@ -1977,6 +4070,39 @@
       <c r="Q33" s="16" t="s">
         <v>41</v>
       </c>
+      <c r="R33" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="S33" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="T33" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="U33" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="V33" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="W33" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="X33" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y33" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z33" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA33" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB33" s="16" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="34" s="16" customFormat="true">
       <c r="B34" s="16" t="s">
@@ -1986,19 +4112,19 @@
         <v>47</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>71</v>
+        <v>179</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>54</v>
+        <v>192</v>
       </c>
       <c r="H34" s="16" t="s">
         <v>77</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="J34" s="16" t="s">
         <v>78</v>
@@ -2023,6 +4149,39 @@
       </c>
       <c r="Q34" s="16" t="s">
         <v>114</v>
+      </c>
+      <c r="R34" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="S34" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="T34" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="U34" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="V34" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="W34" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="X34" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y34" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="Z34" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="AA34" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB34" s="16" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="35" s="16" customFormat="true">
@@ -2070,6 +4229,39 @@
       </c>
       <c r="Q35" s="16" t="s">
         <v>115</v>
+      </c>
+      <c r="R35" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="S35" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="T35" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="U35" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="V35" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="W35" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="X35" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y35" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="Z35" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA35" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB35" s="16" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2079,21 +4271,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet167.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet168.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2107,7 +4299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet169.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2121,7 +4313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet170.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2135,7 +4327,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet171.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2149,7 +4341,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet172.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/psggConverter/psggConverterLib/cf_prepare/CfPrepareControl.xlsx
+++ b/psggConverter/psggConverterLib/cf_prepare/CfPrepareControl.xlsx
@@ -9,12 +9,12 @@
   </bookViews>
   <sheets>
     <sheet name="state-chart" sheetId="1" r:id="rId1"/>
-    <sheet name="itemsinfo" sheetId="172" r:id="rId175"/>
-    <sheet name="help" sheetId="171" r:id="rId174"/>
-    <sheet name="setting.ini" sheetId="170" r:id="rId173"/>
-    <sheet name="template-statefunc" sheetId="169" r:id="rId172"/>
-    <sheet name="template-source" sheetId="168" r:id="rId171"/>
-    <sheet name="config" sheetId="167" r:id="rId170"/>
+    <sheet name="itemsinfo" sheetId="233" r:id="rId236"/>
+    <sheet name="help" sheetId="232" r:id="rId235"/>
+    <sheet name="setting.ini" sheetId="231" r:id="rId234"/>
+    <sheet name="template-statefunc" sheetId="230" r:id="rId233"/>
+    <sheet name="template-source" sheetId="229" r:id="rId232"/>
+    <sheet name="config" sheetId="228" r:id="rId231"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="351">
   <si>
     <t>state</t>
     <phoneticPr fontId="2"/>
@@ -2854,6 +2854,1121 @@
 option_copy_output_to_clipboard=0
 option_convert_with_confirm=0
 option_omit_basestate_string=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=33
+content_max_height=200
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+</t>
+  </si>
+  <si>
+    <t>S_USE_NEWWAY</t>
+  </si>
+  <si>
+    <t>245,916</t>
+  </si>
+  <si>
+    <t>544,845</t>
+  </si>
+  <si>
+    <t>544,1049</t>
+  </si>
+  <si>
+    <t>791,1036</t>
+  </si>
+  <si>
+    <t>1009,925</t>
+  </si>
+  <si>
+    <t>1217,587</t>
+  </si>
+  <si>
+    <t>1506,772</t>
+  </si>
+  <si>
+    <t>1699,764</t>
+  </si>
+  <si>
+    <t>1888,766</t>
+  </si>
+  <si>
+    <t>2080,782</t>
+  </si>
+  <si>
+    <t>2334,525</t>
+  </si>
+  <si>
+    <t>2590,780</t>
+  </si>
+  <si>
+    <t>1453,1209</t>
+  </si>
+  <si>
+    <t>2900,1637</t>
+  </si>
+  <si>
+    <t>brifc(S_CHECK_EQUALS);
+brelse(S_CHECK_BOT);</t>
+  </si>
+  <si>
+    <t>m_newway
+?</t>
+  </si>
+  <si>
+    <t>40,1123</t>
+  </si>
+  <si>
+    <t>100026</t>
+  </si>
+  <si>
+    <t>E_USE_NEWWAY</t>
+  </si>
+  <si>
+    <t>新手法切替</t>
+  </si>
+  <si>
+    <t>bool m_newway = true;</t>
+  </si>
+  <si>
+    <t>612,52</t>
+  </si>
+  <si>
+    <t>100027</t>
+  </si>
+  <si>
+    <t>S_CHECK_BOT1</t>
+  </si>
+  <si>
+    <t>350,1418</t>
+  </si>
+  <si>
+    <t>100028</t>
+  </si>
+  <si>
+    <t>S_CHECK_EQUALS</t>
+  </si>
+  <si>
+    <t>開始行の最後が　=="文字列"となってる場合</t>
+  </si>
+  <si>
+    <t>string m_eqstr;</t>
+  </si>
+  <si>
+    <t>// 抽出　=="hoge" 
+var s=RegexUtil.Get1stMatch(@"==\x22[^\x22]*?\x22$",m_target);</t>
+  </si>
+  <si>
+    <t>132,1324</t>
+  </si>
+  <si>
+    <t>100029</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/01/12 6:01:44
+; * pssgEditor version : 0.20.2681.7a2a680482afe3969e88b813259898fe697acf11
+psggfile=@@@
+CfPrepareControl.psgg
+@@@
+xlsfile=@@@
+CfPrepareControl.xlsx
+@@@
+guid=@@@
+28672353-b06d-433b-a85c-dd10e8edd1e8
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":28,"y":171}},{"Key":"S_END","Value":{"x":2914,"y":198}},{"Key":"E_0003","Value":{"x":206,"y":39}},{"Key":"E_0005","Value":{"x":382,"y":43}},{"Key":"E_INOUT","Value":{"x":28,"y":14}},{"Key":"S_RETURN_FALSE","Value":{"x":1005,"y":76}},{"Key":"S_CHECK_EXCEPTION","Value":{"x":521,"y":570}},{"Key":"S_INIT2","Value":{"x":743,"y":569}},{"Key":"S_CHECK_LINES","Value":{"x":42,"y":264}},{"Key":"S_FIND_MATCHLINES","Value":{"x":59,"y":408}},{"Key":"S_TARGET","Value":{"x":953,"y":560}},{"Key":"S_CHECK_BOT","Value":{"x":245,"y":916}},{"Key":"S_STR_W_REGEX","Value":{"x":544,"y":845}},{"Key":"S_ITEM_W_REGEX","Value":{"x":544,"y":1049}},{"Key":"S_IS_VALID_REGEX","Value":{"x":1009,"y":925}},{"Key":"S_EXEC_REGEX","Value":{"x":1217,"y":587}},{"Key":"S_CHECK_VALID_VAL","Value":{"x":791,"y":1036}},{"Key":"S_GET_SIZE","Value":{"x":1506,"y":772}},{"Key":"S_CHECK_EOF","Value":{"x":1699,"y":764}},{"Key":"S_REMOVE_TOPBOT","Value":{"x":1888,"y":766}},{"Key":"S_IF_EOF","Value":{"x":2080,"y":782}},{"Key":"S_REMOVE_REST","Value":{"x":2334,"y":525}},{"Key":"S_REPLACE","Value":{"x":2590,"y":780}},{"Key":"S_REMOVE","Value":{"x":1453,"y":1209}},{"Key":"S_RETURN_TRUE","Value":{"x":2900,"y":1637}},{"Key":"S_EXEC_REGEX1","Value":{"x":36,"y":951}},{"Key":"S_USE_NEWWAY","Value":{"x":40,"y":1123}},{"Key":"S_EXEC_REGEX2","Value":{"x":612,"y":52}},{"Key":"E_USE_NEWWAY","Value":{"x":612,"y":52}},{"Key":"S_CHECK_BOT1","Value":{"x":350,"y":1418}},{"Key":"S_CHECK_BOT2","Value":{"x":226,"y":1505}},{"Key":"S_CHECK_BOT3","Value":{"x":102,"y":1372}},{"Key":"E_NEW_VALS","Value":{"x":102,"y":1372}},{"Key":"S_CHECK_EQUALS","Value":{"x":132,"y":1324}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BACKTO_"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=33
+content_max_height=200
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+</t>
+  </si>
+  <si>
+    <t>brifc(S_STR_W_REGEX1);
+brelse(S_ITEM_W_REGEX1);</t>
+  </si>
+  <si>
+    <t>238,1409</t>
+  </si>
+  <si>
+    <t>string m_eqstr;//==の比較値
+string m_exstr; //抽出結果用</t>
+  </si>
+  <si>
+    <t>m_estr = null; //結果クリア
+// 抽出　=="hoge" 
+var s=RegexUtil.Get1stMatch(@"==\x22[^\x22]*?\x22$",m_target);
+if (!string.IsNullOrEmpty(s))
+{
+    m_eqstr = s.Substring(2).Trim('\x22');
+    m_target = m_target.Substring(0,m_target.Length - s.Length);
+}</t>
+  </si>
+  <si>
+    <t>30,1415</t>
+  </si>
+  <si>
+    <t>S_ITEM_W_REGEX1</t>
+  </si>
+  <si>
+    <t>S_CHECK_VALID_VAL1</t>
+  </si>
+  <si>
+    <t>538,1573</t>
+  </si>
+  <si>
+    <t>100031</t>
+  </si>
+  <si>
+    <t>S_STR_W_REGEX1</t>
+  </si>
+  <si>
+    <t>537,1347</t>
+  </si>
+  <si>
+    <t>100030</t>
+  </si>
+  <si>
+    <t>766,1519</t>
+  </si>
+  <si>
+    <t>100032</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/01/12 6:19:51
+; * pssgEditor version : 0.20.2681.7a2a680482afe3969e88b813259898fe697acf11
+psggfile=@@@
+CfPrepareControl.psgg
+@@@
+xlsfile=@@@
+CfPrepareControl.xlsx
+@@@
+guid=@@@
+28672353-b06d-433b-a85c-dd10e8edd1e8
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":28,"y":171}},{"Key":"S_END","Value":{"x":2914,"y":198}},{"Key":"E_0003","Value":{"x":206,"y":39}},{"Key":"E_0005","Value":{"x":382,"y":43}},{"Key":"E_INOUT","Value":{"x":28,"y":14}},{"Key":"S_RETURN_FALSE","Value":{"x":1005,"y":76}},{"Key":"S_CHECK_EXCEPTION","Value":{"x":521,"y":570}},{"Key":"S_INIT2","Value":{"x":743,"y":569}},{"Key":"S_CHECK_LINES","Value":{"x":42,"y":264}},{"Key":"S_FIND_MATCHLINES","Value":{"x":59,"y":408}},{"Key":"S_TARGET","Value":{"x":953,"y":560}},{"Key":"S_CHECK_BOT","Value":{"x":245,"y":916}},{"Key":"S_STR_W_REGEX","Value":{"x":544,"y":845}},{"Key":"S_ITEM_W_REGEX","Value":{"x":544,"y":1049}},{"Key":"S_IS_VALID_REGEX","Value":{"x":1009,"y":925}},{"Key":"S_EXEC_REGEX","Value":{"x":1217,"y":587}},{"Key":"S_CHECK_VALID_VAL","Value":{"x":791,"y":1036}},{"Key":"S_GET_SIZE","Value":{"x":1506,"y":772}},{"Key":"S_CHECK_EOF","Value":{"x":1699,"y":764}},{"Key":"S_REMOVE_TOPBOT","Value":{"x":1888,"y":766}},{"Key":"S_IF_EOF","Value":{"x":2080,"y":782}},{"Key":"S_REMOVE_REST","Value":{"x":2334,"y":525}},{"Key":"S_REPLACE","Value":{"x":2590,"y":780}},{"Key":"S_REMOVE","Value":{"x":1453,"y":1209}},{"Key":"S_RETURN_TRUE","Value":{"x":2900,"y":1637}},{"Key":"S_EXEC_REGEX1","Value":{"x":36,"y":951}},{"Key":"S_USE_NEWWAY","Value":{"x":40,"y":1123}},{"Key":"S_EXEC_REGEX2","Value":{"x":612,"y":52}},{"Key":"E_USE_NEWWAY","Value":{"x":612,"y":52}},{"Key":"S_CHECK_BOT1","Value":{"x":238,"y":1409}},{"Key":"S_CHECK_BOT2","Value":{"x":226,"y":1505}},{"Key":"S_CHECK_BOT3","Value":{"x":102,"y":1372}},{"Key":"E_NEW_VALS","Value":{"x":102,"y":1372}},{"Key":"S_CHECK_EQUALS","Value":{"x":30,"y":1415}},{"Key":"S_STR_W_REGEX1","Value":{"x":537,"y":1347}},{"Key":"S_ITEM_W_REGEX1","Value":{"x":538,"y":1573}},{"Key":"S_CHECK_VALID_VAL1","Value":{"x":766,"y":1519}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BACKTO_"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=33
+content_max_height=200
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+</t>
+  </si>
+  <si>
+    <t>string m_eqstr;//==の比較値     ※nullと""は意味が違う。 null時は==""の文字列がなかった意味
+string m_exstr; //抽出結果用</t>
+  </si>
+  <si>
+    <t>S_NORMALIZE_REGEX</t>
+  </si>
+  <si>
+    <t>535,1572</t>
+  </si>
+  <si>
+    <t>1791,1318</t>
+  </si>
+  <si>
+    <t>S_EXTRUCT</t>
+  </si>
+  <si>
+    <t>抽出</t>
+  </si>
+  <si>
+    <t>S_CHECK_EQSTR</t>
+  </si>
+  <si>
+    <t>if (string.IsNullOrEmpty(m_regex) || string.IsNullOrEmpty(m_val))
+{
+    m_estr = m_val;    
+}
+else
+{
+    m_estr = RegexUtil.Get1stMatch(m_regex,m_val);    
+}
+</t>
+  </si>
+  <si>
+    <t>1004,1438</t>
+  </si>
+  <si>
+    <t>100033</t>
+  </si>
+  <si>
+    <t>正規表現があれば、前後の'/'を削除</t>
+  </si>
+  <si>
+    <t>var bOk=false;</t>
+  </si>
+  <si>
+    <t>if (string.IsNullOrEmpty(m_regex)) {
+    bOk=true;
+}
+else if (m_regex.Lengh&gt;2) {
+    if (m_regex[0]=='/' &amp;&amp; m_regex[m_regex.Length-1]=='/') {
+        m_regex = m_regex.Substring(1);
+        m_regex = m_regex.Substring(0,m_regex.Length - 1);
+        bOk = true;
+    }
+}</t>
+  </si>
+  <si>
+    <t>brifc(S_EXTRUCT);
+brelse(S_GOTO_FALSE);</t>
+  </si>
+  <si>
+    <t>bOk
+?</t>
+  </si>
+  <si>
+    <t>781,1486</t>
+  </si>
+  <si>
+    <t>100034</t>
+  </si>
+  <si>
+    <t>=="文字列"の確認が必要か？</t>
+  </si>
+  <si>
+    <t>brifc(S_COMPARE_EQSTR);
+brelse(?);</t>
+  </si>
+  <si>
+    <t>m_eqstr!=null
+?</t>
+  </si>
+  <si>
+    <t>1234,1419</t>
+  </si>
+  <si>
+    <t>100035</t>
+  </si>
+  <si>
+    <t>S_COMPARE_EQSTR</t>
+  </si>
+  <si>
+    <t>結果の比較</t>
+  </si>
+  <si>
+    <t>var bEq=false;</t>
+  </si>
+  <si>
+    <t>if (string.IsNullOrEmpty(m_estr) &amp;&amp; string.IsNullOrEmpty(m_eqstr)) {
+    m_bEq=true;
+}
+else if (m_str == m_eqstr)
+{
+    m_bEq=true;
+}
+</t>
+  </si>
+  <si>
+    <t>1485,1447</t>
+  </si>
+  <si>
+    <t>100036</t>
+  </si>
+  <si>
+    <t>S_GOTO_FALSE</t>
+  </si>
+  <si>
+    <t>1022,1856</t>
+  </si>
+  <si>
+    <t>100037</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/01/12 6:49:06
+; * pssgEditor version : 0.20.2681.7a2a680482afe3969e88b813259898fe697acf11
+psggfile=@@@
+CfPrepareControl.psgg
+@@@
+xlsfile=@@@
+CfPrepareControl.xlsx
+@@@
+guid=@@@
+28672353-b06d-433b-a85c-dd10e8edd1e8
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Changed an arrow direction
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":28,"y":171}},{"Key":"S_END","Value":{"x":2914,"y":198}},{"Key":"E_0003","Value":{"x":206,"y":39}},{"Key":"E_0005","Value":{"x":382,"y":43}},{"Key":"E_INOUT","Value":{"x":28,"y":14}},{"Key":"S_RETURN_FALSE","Value":{"x":1005,"y":76}},{"Key":"S_CHECK_EXCEPTION","Value":{"x":521,"y":570}},{"Key":"S_INIT2","Value":{"x":743,"y":569}},{"Key":"S_CHECK_LINES","Value":{"x":42,"y":264}},{"Key":"S_FIND_MATCHLINES","Value":{"x":59,"y":408}},{"Key":"S_TARGET","Value":{"x":953,"y":560}},{"Key":"S_CHECK_BOT","Value":{"x":245,"y":916}},{"Key":"S_STR_W_REGEX","Value":{"x":544,"y":845}},{"Key":"S_ITEM_W_REGEX","Value":{"x":544,"y":1049}},{"Key":"S_IS_VALID_REGEX","Value":{"x":1009,"y":925}},{"Key":"S_EXEC_REGEX","Value":{"x":1217,"y":587}},{"Key":"S_CHECK_VALID_VAL","Value":{"x":791,"y":1036}},{"Key":"S_GET_SIZE","Value":{"x":1506,"y":772}},{"Key":"S_CHECK_EOF","Value":{"x":1699,"y":764}},{"Key":"S_REMOVE_TOPBOT","Value":{"x":1888,"y":766}},{"Key":"S_IF_EOF","Value":{"x":2080,"y":782}},{"Key":"S_REMOVE_REST","Value":{"x":2334,"y":525}},{"Key":"S_REPLACE","Value":{"x":2590,"y":780}},{"Key":"S_REMOVE","Value":{"x":1453,"y":1209}},{"Key":"S_RETURN_TRUE","Value":{"x":2900,"y":1637}},{"Key":"S_EXEC_REGEX1","Value":{"x":36,"y":951}},{"Key":"S_USE_NEWWAY","Value":{"x":40,"y":1123}},{"Key":"S_EXEC_REGEX2","Value":{"x":612,"y":52}},{"Key":"E_USE_NEWWAY","Value":{"x":612,"y":52}},{"Key":"S_CHECK_BOT1","Value":{"x":238,"y":1409}},{"Key":"S_CHECK_BOT2","Value":{"x":226,"y":1505}},{"Key":"S_CHECK_BOT3","Value":{"x":102,"y":1372}},{"Key":"E_NEW_VALS","Value":{"x":102,"y":1372}},{"Key":"S_CHECK_EQUALS","Value":{"x":30,"y":1415}},{"Key":"S_STR_W_REGEX1","Value":{"x":537,"y":1347}},{"Key":"S_ITEM_W_REGEX1","Value":{"x":535,"y":1572}},{"Key":"S_CHECK_VALID_VAL1","Value":{"x":1791,"y":1318}},{"Key":"S_CHECK_VALID_VAL2","Value":{"x":769,"y":1523}},{"Key":"S_EXTRUCT","Value":{"x":1004,"y":1438}},{"Key":"S_EXTRUCT1","Value":{"x":811,"y":1507}},{"Key":"S_NORMALIZE_REGEX","Value":{"x":781,"y":1486}},{"Key":"S_CHECK_EQUALS1","Value":{"x":1257,"y":1509}},{"Key":"S_CHECK_EQSTR","Value":{"x":1234,"y":1419}},{"Key":"S_CHECK_EQSTR1","Value":{"x":1022,"y":1856}},{"Key":"S_COMPARE_EQSTR","Value":{"x":1485,"y":1447}},{"Key":"S_GOTO_FALSE","Value":{"x":1022,"y":1856}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BACKTO_"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=33
+content_max_height=200
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+</t>
+  </si>
+  <si>
+    <t>3584,133</t>
+  </si>
+  <si>
+    <t>1958,795</t>
+  </si>
+  <si>
+    <t>2151,787</t>
+  </si>
+  <si>
+    <t>2340,789</t>
+  </si>
+  <si>
+    <t>2532,805</t>
+  </si>
+  <si>
+    <t>2786,548</t>
+  </si>
+  <si>
+    <t>3042,803</t>
+  </si>
+  <si>
+    <t>2263,1244</t>
+  </si>
+  <si>
+    <t>S_CHECK_ESTR</t>
+  </si>
+  <si>
+    <t>結果の存在確認</t>
+  </si>
+  <si>
+    <t>var bOk=!string.IsNullOrEmpty(m_estr);</t>
+  </si>
+  <si>
+    <t>1619,1688</t>
+  </si>
+  <si>
+    <t>100038</t>
+  </si>
+  <si>
+    <t>brifc(S_COMPARE_EQSTR);
+brelse(S_CHECK_ESTR);</t>
+  </si>
+  <si>
+    <t>bEq
+?</t>
+  </si>
+  <si>
+    <t>1610,1331</t>
+  </si>
+  <si>
+    <t>673,378</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/01/12 6:56:23
+; * pssgEditor version : 0.20.2681.7a2a680482afe3969e88b813259898fe697acf11
+psggfile=@@@
+CfPrepareControl.psgg
+@@@
+xlsfile=@@@
+CfPrepareControl.xlsx
+@@@
+guid=@@@
+28672353-b06d-433b-a85c-dd10e8edd1e8
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Moved a state
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":28,"y":171}},{"Key":"S_END","Value":{"x":3584,"y":133}},{"Key":"E_0003","Value":{"x":206,"y":39}},{"Key":"E_0005","Value":{"x":382,"y":43}},{"Key":"E_INOUT","Value":{"x":28,"y":14}},{"Key":"S_RETURN_FALSE","Value":{"x":1005,"y":76}},{"Key":"S_CHECK_EXCEPTION","Value":{"x":521,"y":570}},{"Key":"S_INIT2","Value":{"x":743,"y":569}},{"Key":"S_CHECK_LINES","Value":{"x":42,"y":264}},{"Key":"S_FIND_MATCHLINES","Value":{"x":59,"y":408}},{"Key":"S_TARGET","Value":{"x":953,"y":560}},{"Key":"S_CHECK_BOT","Value":{"x":245,"y":916}},{"Key":"S_STR_W_REGEX","Value":{"x":544,"y":845}},{"Key":"S_ITEM_W_REGEX","Value":{"x":544,"y":1049}},{"Key":"S_IS_VALID_REGEX","Value":{"x":1009,"y":925}},{"Key":"S_EXEC_REGEX","Value":{"x":1217,"y":587}},{"Key":"S_CHECK_VALID_VAL","Value":{"x":791,"y":1036}},{"Key":"S_GET_SIZE","Value":{"x":1958,"y":795}},{"Key":"S_CHECK_EOF","Value":{"x":2151,"y":787}},{"Key":"S_REMOVE_TOPBOT","Value":{"x":2340,"y":789}},{"Key":"S_IF_EOF","Value":{"x":2532,"y":805}},{"Key":"S_REMOVE_REST","Value":{"x":2786,"y":548}},{"Key":"S_REPLACE","Value":{"x":3042,"y":803}},{"Key":"S_REMOVE","Value":{"x":2263,"y":1244}},{"Key":"S_RETURN_TRUE","Value":{"x":2900,"y":1637}},{"Key":"S_EXEC_REGEX1","Value":{"x":36,"y":951}},{"Key":"S_USE_NEWWAY","Value":{"x":40,"y":1123}},{"Key":"S_EXEC_REGEX2","Value":{"x":612,"y":52}},{"Key":"E_USE_NEWWAY","Value":{"x":612,"y":52}},{"Key":"S_CHECK_BOT1","Value":{"x":238,"y":1409}},{"Key":"S_CHECK_BOT2","Value":{"x":226,"y":1505}},{"Key":"S_CHECK_BOT3","Value":{"x":102,"y":1372}},{"Key":"E_NEW_VALS","Value":{"x":102,"y":1372}},{"Key":"S_CHECK_EQUALS","Value":{"x":30,"y":1415}},{"Key":"S_STR_W_REGEX1","Value":{"x":537,"y":1347}},{"Key":"S_ITEM_W_REGEX1","Value":{"x":535,"y":1572}},{"Key":"S_CHECK_VALID_VAL1","Value":{"x":1875,"y":1442}},{"Key":"S_CHECK_VALID_VAL2","Value":{"x":769,"y":1523}},{"Key":"S_EXTRUCT","Value":{"x":1004,"y":1438}},{"Key":"S_EXTRUCT1","Value":{"x":811,"y":1507}},{"Key":"S_NORMALIZE_REGEX","Value":{"x":781,"y":1486}},{"Key":"S_CHECK_EQUALS1","Value":{"x":1257,"y":1509}},{"Key":"S_CHECK_EQSTR","Value":{"x":1234,"y":1419}},{"Key":"S_CHECK_EQSTR1","Value":{"x":1022,"y":1856}},{"Key":"S_COMPARE_EQSTR","Value":{"x":1610,"y":1331}},{"Key":"S_GOTO_FALSE","Value":{"x":673,"y":378}},{"Key":"S_COMPARE_EQSTR1","Value":{"x":1612,"y":1753}},{"Key":"S_CHECK_ESTR","Value":{"x":1619,"y":1688}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"GOTO_"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=33
+content_max_height=200
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/01/12 6:58:23
+; * pssgEditor version : 0.20.2681.7a2a680482afe3969e88b813259898fe697acf11
+psggfile=@@@
+CfPrepareControl.psgg
+@@@
+xlsfile=@@@
+CfPrepareControl.xlsx
+@@@
+guid=@@@
+28672353-b06d-433b-a85c-dd10e8edd1e8
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Moved a state
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":28,"y":171}},{"Key":"S_END","Value":{"x":3584,"y":133}},{"Key":"E_0003","Value":{"x":206,"y":39}},{"Key":"E_0005","Value":{"x":382,"y":43}},{"Key":"E_INOUT","Value":{"x":28,"y":14}},{"Key":"S_RETURN_FALSE","Value":{"x":1005,"y":76}},{"Key":"S_CHECK_EXCEPTION","Value":{"x":521,"y":570}},{"Key":"S_INIT2","Value":{"x":743,"y":569}},{"Key":"S_CHECK_LINES","Value":{"x":42,"y":264}},{"Key":"S_FIND_MATCHLINES","Value":{"x":59,"y":408}},{"Key":"S_TARGET","Value":{"x":953,"y":560}},{"Key":"S_CHECK_BOT","Value":{"x":245,"y":916}},{"Key":"S_STR_W_REGEX","Value":{"x":544,"y":845}},{"Key":"S_ITEM_W_REGEX","Value":{"x":544,"y":1049}},{"Key":"S_IS_VALID_REGEX","Value":{"x":1009,"y":925}},{"Key":"S_EXEC_REGEX","Value":{"x":1217,"y":587}},{"Key":"S_CHECK_VALID_VAL","Value":{"x":791,"y":1036}},{"Key":"S_GET_SIZE","Value":{"x":1958,"y":795}},{"Key":"S_CHECK_EOF","Value":{"x":2151,"y":787}},{"Key":"S_REMOVE_TOPBOT","Value":{"x":2340,"y":789}},{"Key":"S_IF_EOF","Value":{"x":2532,"y":805}},{"Key":"S_REMOVE_REST","Value":{"x":2786,"y":548}},{"Key":"S_REPLACE","Value":{"x":3042,"y":803}},{"Key":"S_REMOVE","Value":{"x":2263,"y":1244}},{"Key":"S_RETURN_TRUE","Value":{"x":2900,"y":1637}},{"Key":"S_EXEC_REGEX1","Value":{"x":36,"y":951}},{"Key":"S_USE_NEWWAY","Value":{"x":40,"y":1123}},{"Key":"S_EXEC_REGEX2","Value":{"x":612,"y":52}},{"Key":"E_USE_NEWWAY","Value":{"x":612,"y":52}},{"Key":"S_CHECK_BOT1","Value":{"x":238,"y":1409}},{"Key":"S_CHECK_BOT2","Value":{"x":226,"y":1505}},{"Key":"S_CHECK_BOT3","Value":{"x":102,"y":1372}},{"Key":"E_NEW_VALS","Value":{"x":102,"y":1372}},{"Key":"S_CHECK_EQUALS","Value":{"x":30,"y":1415}},{"Key":"S_STR_W_REGEX1","Value":{"x":537,"y":1347}},{"Key":"S_ITEM_W_REGEX1","Value":{"x":535,"y":1572}},{"Key":"S_CHECK_VALID_VAL1","Value":{"x":1875,"y":1442}},{"Key":"S_CHECK_VALID_VAL2","Value":{"x":769,"y":1523}},{"Key":"S_EXTRUCT","Value":{"x":1004,"y":1438}},{"Key":"S_EXTRUCT1","Value":{"x":811,"y":1507}},{"Key":"S_NORMALIZE_REGEX","Value":{"x":781,"y":1486}},{"Key":"S_CHECK_EQUALS1","Value":{"x":1257,"y":1509}},{"Key":"S_CHECK_EQSTR","Value":{"x":1234,"y":1419}},{"Key":"S_CHECK_EQSTR1","Value":{"x":1022,"y":1856}},{"Key":"S_COMPARE_EQSTR","Value":{"x":1610,"y":1331}},{"Key":"S_GOTO_FALSE","Value":{"x":673,"y":378}},{"Key":"S_COMPARE_EQSTR1","Value":{"x":1612,"y":1753}},{"Key":"S_CHECK_ESTR","Value":{"x":1619,"y":1688}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"GOTO_"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=33
+content_max_height=200
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+</t>
+  </si>
+  <si>
+    <t>1752,199</t>
+  </si>
+  <si>
+    <t>1523,383</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/01/12 6:59:13
+; * pssgEditor version : 0.20.2681.7a2a680482afe3969e88b813259898fe697acf11
+psggfile=@@@
+CfPrepareControl.psgg
+@@@
+xlsfile=@@@
+CfPrepareControl.xlsx
+@@@
+guid=@@@
+28672353-b06d-433b-a85c-dd10e8edd1e8
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Moved a state
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":28,"y":171}},{"Key":"S_END","Value":{"x":3584,"y":133}},{"Key":"E_0003","Value":{"x":206,"y":39}},{"Key":"E_0005","Value":{"x":382,"y":43}},{"Key":"E_INOUT","Value":{"x":28,"y":14}},{"Key":"S_RETURN_FALSE","Value":{"x":1751.66675,"y":199.333328}},{"Key":"S_CHECK_EXCEPTION","Value":{"x":521,"y":570}},{"Key":"S_INIT2","Value":{"x":743,"y":569}},{"Key":"S_CHECK_LINES","Value":{"x":42,"y":264}},{"Key":"S_FIND_MATCHLINES","Value":{"x":59,"y":408}},{"Key":"S_TARGET","Value":{"x":953,"y":560}},{"Key":"S_CHECK_BOT","Value":{"x":245,"y":916}},{"Key":"S_STR_W_REGEX","Value":{"x":544,"y":845}},{"Key":"S_ITEM_W_REGEX","Value":{"x":544,"y":1049}},{"Key":"S_IS_VALID_REGEX","Value":{"x":1009,"y":925}},{"Key":"S_EXEC_REGEX","Value":{"x":1217,"y":587}},{"Key":"S_CHECK_VALID_VAL","Value":{"x":791,"y":1036}},{"Key":"S_GET_SIZE","Value":{"x":1958,"y":795}},{"Key":"S_CHECK_EOF","Value":{"x":2151,"y":787}},{"Key":"S_REMOVE_TOPBOT","Value":{"x":2340,"y":789}},{"Key":"S_IF_EOF","Value":{"x":2532,"y":805}},{"Key":"S_REMOVE_REST","Value":{"x":2786,"y":548}},{"Key":"S_REPLACE","Value":{"x":3042,"y":803}},{"Key":"S_REMOVE","Value":{"x":2263,"y":1244}},{"Key":"S_RETURN_TRUE","Value":{"x":2900,"y":1637}},{"Key":"S_EXEC_REGEX1","Value":{"x":36,"y":951}},{"Key":"S_USE_NEWWAY","Value":{"x":40,"y":1123}},{"Key":"S_EXEC_REGEX2","Value":{"x":612,"y":52}},{"Key":"E_USE_NEWWAY","Value":{"x":612,"y":52}},{"Key":"S_CHECK_BOT1","Value":{"x":238,"y":1409}},{"Key":"S_CHECK_BOT2","Value":{"x":226,"y":1505}},{"Key":"S_CHECK_BOT3","Value":{"x":102,"y":1372}},{"Key":"E_NEW_VALS","Value":{"x":102,"y":1372}},{"Key":"S_CHECK_EQUALS","Value":{"x":30,"y":1415}},{"Key":"S_STR_W_REGEX1","Value":{"x":537,"y":1347}},{"Key":"S_ITEM_W_REGEX1","Value":{"x":535,"y":1572}},{"Key":"S_CHECK_VALID_VAL1","Value":{"x":1875,"y":1442}},{"Key":"S_CHECK_VALID_VAL2","Value":{"x":769,"y":1523}},{"Key":"S_EXTRUCT","Value":{"x":1004,"y":1438}},{"Key":"S_EXTRUCT1","Value":{"x":811,"y":1507}},{"Key":"S_NORMALIZE_REGEX","Value":{"x":781,"y":1486}},{"Key":"S_CHECK_EQUALS1","Value":{"x":1257,"y":1509}},{"Key":"S_CHECK_EQSTR","Value":{"x":1234,"y":1419}},{"Key":"S_CHECK_EQSTR1","Value":{"x":1022,"y":1856}},{"Key":"S_COMPARE_EQSTR","Value":{"x":1610,"y":1331}},{"Key":"S_GOTO_FALSE","Value":{"x":1523,"y":382.999969}},{"Key":"S_COMPARE_EQSTR1","Value":{"x":1612,"y":1753}},{"Key":"S_CHECK_ESTR","Value":{"x":1619,"y":1688}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"GOTO_"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=33
+content_max_height=200
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt;?state/^C_/
+eof&gt;&gt;&gt;
+/*
+    [[state]]
+    [[state-cmt]]
+    &lt;&lt;&lt;?basestate
+     base state : [[basestate]]
+    &gt;&gt;&gt;
+*/
+&lt;&lt;&lt;?state/^E_/
+[[embed]]
+eof&gt;&gt;&gt;
+[[members]]
+void [[state]](bool bFirst)
+{
+    [[vars]]
+    &lt;&lt;&lt;?init
+    //
+    if (bFirst)
+    {
+        [[init]]
+    }
+    &gt;&gt;&gt;
+    [[update]]
+    &lt;&lt;&lt;?wait
+    if ([[wait]]) return;
+    &gt;&gt;&gt;
+    [[post_wait]]
+&lt;&lt;&lt;?gosubstate
+    GoSubState([[gosubstate]],[[nextstate]]);
+    NoWait();
+}
+eof&gt;&gt;&gt;
+&lt;&lt;&lt;?return
+    ReturnState();
+    NoWait();
+}
+eof&gt;&gt;&gt;
+    &lt;&lt;&lt;?branch
+    // branch
+    [[branch]]
+    &gt;&gt;&gt;
+    &lt;&lt;&lt;?nextstate        
+    //
+    if (!HasNextState())
+    {
+        Goto([[nextstate]]);
+    }
+    &gt;&gt;&gt;
+    &lt;&lt;&lt;?nowait
+    //
+    if (HasNextState())
+    {
+        NoWait();
+    }
+    &gt;&gt;&gt;
+}
+</t>
+  </si>
+  <si>
+    <t>159,375</t>
+  </si>
+  <si>
+    <t>310,923</t>
+  </si>
+  <si>
+    <t>108,1123</t>
+  </si>
+  <si>
+    <t>290,1432</t>
+  </si>
+  <si>
+    <t>97,1440</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/01/12 7:06:43
+; * pssgEditor version : 0.20.2681.7a2a680482afe3969e88b813259898fe697acf11
+psggfile=@@@
+CfPrepareControl.psgg
+@@@
+xlsfile=@@@
+CfPrepareControl.xlsx
+@@@
+guid=@@@
+28672353-b06d-433b-a85c-dd10e8edd1e8
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Moved a state
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":28,"y":171}},{"Key":"S_END","Value":{"x":3584,"y":133}},{"Key":"E_0003","Value":{"x":206,"y":39}},{"Key":"E_0005","Value":{"x":382,"y":43}},{"Key":"E_INOUT","Value":{"x":28,"y":14}},{"Key":"S_RETURN_FALSE","Value":{"x":1752,"y":199}},{"Key":"S_CHECK_EXCEPTION","Value":{"x":521,"y":570}},{"Key":"S_INIT2","Value":{"x":743,"y":569}},{"Key":"S_CHECK_LINES","Value":{"x":42,"y":264}},{"Key":"S_FIND_MATCHLINES","Value":{"x":159,"y":374.666656}},{"Key":"S_TARGET","Value":{"x":953,"y":560}},{"Key":"S_CHECK_BOT","Value":{"x":310,"y":922.6667}},{"Key":"S_STR_W_REGEX","Value":{"x":544,"y":845}},{"Key":"S_ITEM_W_REGEX","Value":{"x":544,"y":1049}},{"Key":"S_IS_VALID_REGEX","Value":{"x":1009,"y":925}},{"Key":"S_EXEC_REGEX","Value":{"x":1217,"y":587}},{"Key":"S_CHECK_VALID_VAL","Value":{"x":791,"y":1036}},{"Key":"S_GET_SIZE","Value":{"x":1958,"y":795}},{"Key":"S_CHECK_EOF","Value":{"x":2151,"y":787}},{"Key":"S_REMOVE_TOPBOT","Value":{"x":2340,"y":789}},{"Key":"S_IF_EOF","Value":{"x":2532,"y":805}},{"Key":"S_REMOVE_REST","Value":{"x":2786,"y":548}},{"Key":"S_REPLACE","Value":{"x":3042,"y":803}},{"Key":"S_REMOVE","Value":{"x":2263,"y":1244}},{"Key":"S_RETURN_TRUE","Value":{"x":2900,"y":1637}},{"Key":"S_EXEC_REGEX1","Value":{"x":36,"y":951}},{"Key":"S_USE_NEWWAY","Value":{"x":108.333344,"y":1123}},{"Key":"S_EXEC_REGEX2","Value":{"x":612,"y":52}},{"Key":"E_USE_NEWWAY","Value":{"x":612,"y":52}},{"Key":"S_CHECK_BOT1","Value":{"x":289.666656,"y":1432.33337}},{"Key":"S_CHECK_BOT2","Value":{"x":226,"y":1505}},{"Key":"S_CHECK_BOT3","Value":{"x":102,"y":1372}},{"Key":"E_NEW_VALS","Value":{"x":102,"y":1372}},{"Key":"S_CHECK_EQUALS","Value":{"x":96.66667,"y":1440}},{"Key":"S_STR_W_REGEX1","Value":{"x":537,"y":1347}},{"Key":"S_ITEM_W_REGEX1","Value":{"x":535,"y":1572}},{"Key":"S_CHECK_VALID_VAL1","Value":{"x":1875,"y":1442}},{"Key":"S_CHECK_VALID_VAL2","Value":{"x":769,"y":1523}},{"Key":"S_EXTRUCT","Value":{"x":1004,"y":1438}},{"Key":"S_EXTRUCT1","Value":{"x":811,"y":1507}},{"Key":"S_NORMALIZE_REGEX","Value":{"x":781,"y":1486}},{"Key":"S_CHECK_EQUALS1","Value":{"x":1257,"y":1509}},{"Key":"S_CHECK_EQSTR","Value":{"x":1234,"y":1419}},{"Key":"S_CHECK_EQSTR1","Value":{"x":1022,"y":1856}},{"Key":"S_COMPARE_EQSTR","Value":{"x":1610,"y":1331}},{"Key":"S_GOTO_FALSE","Value":{"x":1523,"y":383}},{"Key":"S_COMPARE_EQSTR1","Value":{"x":1612,"y":1753}},{"Key":"S_CHECK_ESTR","Value":{"x":1619,"y":1688}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"GOTO_"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=33
+content_max_height=200
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+</t>
+  </si>
+  <si>
+    <t>if (string.IsNullOrEmpty(m_regex)) {
+    bOk=true;
+}
+else if (m_regex.Length&gt;2) {
+    if (m_regex[0]=='/' &amp;&amp; m_regex[m_regex.Length-1]=='/') {
+        m_regex = m_regex.Substring(1);
+        m_regex = m_regex.Substring(0,m_regex.Length - 1);
+        bOk = true;
+    }
+}</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/01/12 7:07:28
+; * pssgEditor version : 0.20.2681.7a2a680482afe3969e88b813259898fe697acf11
+psggfile=@@@
+CfPrepareControl.psgg
+@@@
+xlsfile=@@@
+CfPrepareControl.xlsx
+@@@
+guid=@@@
+28672353-b06d-433b-a85c-dd10e8edd1e8
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":28,"y":171}},{"Key":"S_END","Value":{"x":3584,"y":133}},{"Key":"E_0003","Value":{"x":206,"y":39}},{"Key":"E_0005","Value":{"x":382,"y":43}},{"Key":"E_INOUT","Value":{"x":28,"y":14}},{"Key":"S_RETURN_FALSE","Value":{"x":1752,"y":199}},{"Key":"S_CHECK_EXCEPTION","Value":{"x":521,"y":570}},{"Key":"S_INIT2","Value":{"x":743,"y":569}},{"Key":"S_CHECK_LINES","Value":{"x":42,"y":264}},{"Key":"S_FIND_MATCHLINES","Value":{"x":159,"y":375}},{"Key":"S_TARGET","Value":{"x":953,"y":560}},{"Key":"S_CHECK_BOT","Value":{"x":310,"y":923}},{"Key":"S_STR_W_REGEX","Value":{"x":544,"y":845}},{"Key":"S_ITEM_W_REGEX","Value":{"x":544,"y":1049}},{"Key":"S_IS_VALID_REGEX","Value":{"x":1009,"y":925}},{"Key":"S_EXEC_REGEX","Value":{"x":1217,"y":587}},{"Key":"S_CHECK_VALID_VAL","Value":{"x":791,"y":1036}},{"Key":"S_GET_SIZE","Value":{"x":1958,"y":795}},{"Key":"S_CHECK_EOF","Value":{"x":2151,"y":787}},{"Key":"S_REMOVE_TOPBOT","Value":{"x":2340,"y":789}},{"Key":"S_IF_EOF","Value":{"x":2532,"y":805}},{"Key":"S_REMOVE_REST","Value":{"x":2786,"y":548}},{"Key":"S_REPLACE","Value":{"x":3042,"y":803}},{"Key":"S_REMOVE","Value":{"x":2263,"y":1244}},{"Key":"S_RETURN_TRUE","Value":{"x":2900,"y":1637}},{"Key":"S_EXEC_REGEX1","Value":{"x":36,"y":951}},{"Key":"S_USE_NEWWAY","Value":{"x":108,"y":1123}},{"Key":"S_EXEC_REGEX2","Value":{"x":612,"y":52}},{"Key":"E_USE_NEWWAY","Value":{"x":612,"y":52}},{"Key":"S_CHECK_BOT1","Value":{"x":290,"y":1432}},{"Key":"S_CHECK_BOT2","Value":{"x":226,"y":1505}},{"Key":"S_CHECK_BOT3","Value":{"x":102,"y":1372}},{"Key":"E_NEW_VALS","Value":{"x":102,"y":1372}},{"Key":"S_CHECK_EQUALS","Value":{"x":97,"y":1440}},{"Key":"S_STR_W_REGEX1","Value":{"x":537,"y":1347}},{"Key":"S_ITEM_W_REGEX1","Value":{"x":535,"y":1572}},{"Key":"S_CHECK_VALID_VAL1","Value":{"x":1875,"y":1442}},{"Key":"S_CHECK_VALID_VAL2","Value":{"x":769,"y":1523}},{"Key":"S_EXTRUCT","Value":{"x":1004,"y":1438}},{"Key":"S_EXTRUCT1","Value":{"x":811,"y":1507}},{"Key":"S_NORMALIZE_REGEX","Value":{"x":781,"y":1486}},{"Key":"S_CHECK_EQUALS1","Value":{"x":1257,"y":1509}},{"Key":"S_CHECK_EQSTR","Value":{"x":1234,"y":1419}},{"Key":"S_CHECK_EQSTR1","Value":{"x":1022,"y":1856}},{"Key":"S_COMPARE_EQSTR","Value":{"x":1610,"y":1331}},{"Key":"S_GOTO_FALSE","Value":{"x":1523,"y":383}},{"Key":"S_COMPARE_EQSTR1","Value":{"x":1612,"y":1753}},{"Key":"S_CHECK_ESTR","Value":{"x":1619,"y":1688}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"GOTO_"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=33
+content_max_height=200
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+</t>
+  </si>
+  <si>
+    <t>m_exstr = null; //結果クリア
+// 抽出　=="hoge" 
+var s=RegexUtil.Get1stMatch(@"==\x22[^\x22]*?\x22$",m_target);
+if (!string.IsNullOrEmpty(s))
+{
+    m_eqstr = s.Substring(2).Trim('\x22');
+    m_target = m_target.Substring(0,m_target.Length - s.Length);
+}</t>
+  </si>
+  <si>
+    <t>var bOk=!string.IsNullOrEmpty(m_exstr);</t>
+  </si>
+  <si>
+    <t>if (string.IsNullOrEmpty(m_regex) || string.IsNullOrEmpty(m_val))
+{
+    m_exstr = m_val;    
+}
+else
+{
+    m_exstr = RegexUtil.Get1stMatch(m_regex,m_val);    
+}
+</t>
+  </si>
+  <si>
+    <t>if (string.IsNullOrEmpty(m_exstr) &amp;&amp; string.IsNullOrEmpty(m_eqstr)) {
+    m_bEq=true;
+}
+else if (m_exstr == m_eqstr)
+{
+    m_bEq=true;
+}
+</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/01/12 7:10:31
+; * pssgEditor version : 0.20.2681.7a2a680482afe3969e88b813259898fe697acf11
+psggfile=@@@
+CfPrepareControl.psgg
+@@@
+xlsfile=@@@
+CfPrepareControl.xlsx
+@@@
+guid=@@@
+28672353-b06d-433b-a85c-dd10e8edd1e8
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":28,"y":171}},{"Key":"S_END","Value":{"x":3584,"y":133}},{"Key":"E_0003","Value":{"x":206,"y":39}},{"Key":"E_0005","Value":{"x":382,"y":43}},{"Key":"E_INOUT","Value":{"x":28,"y":14}},{"Key":"S_RETURN_FALSE","Value":{"x":1752,"y":199}},{"Key":"S_CHECK_EXCEPTION","Value":{"x":521,"y":570}},{"Key":"S_INIT2","Value":{"x":743,"y":569}},{"Key":"S_CHECK_LINES","Value":{"x":42,"y":264}},{"Key":"S_FIND_MATCHLINES","Value":{"x":159,"y":375}},{"Key":"S_TARGET","Value":{"x":953,"y":560}},{"Key":"S_CHECK_BOT","Value":{"x":310,"y":923}},{"Key":"S_STR_W_REGEX","Value":{"x":544,"y":845}},{"Key":"S_ITEM_W_REGEX","Value":{"x":544,"y":1049}},{"Key":"S_IS_VALID_REGEX","Value":{"x":1009,"y":925}},{"Key":"S_EXEC_REGEX","Value":{"x":1217,"y":587}},{"Key":"S_CHECK_VALID_VAL","Value":{"x":791,"y":1036}},{"Key":"S_GET_SIZE","Value":{"x":1958,"y":795}},{"Key":"S_CHECK_EOF","Value":{"x":2151,"y":787}},{"Key":"S_REMOVE_TOPBOT","Value":{"x":2340,"y":789}},{"Key":"S_IF_EOF","Value":{"x":2532,"y":805}},{"Key":"S_REMOVE_REST","Value":{"x":2786,"y":548}},{"Key":"S_REPLACE","Value":{"x":3042,"y":803}},{"Key":"S_REMOVE","Value":{"x":2263,"y":1244}},{"Key":"S_RETURN_TRUE","Value":{"x":2900,"y":1637}},{"Key":"S_EXEC_REGEX1","Value":{"x":36,"y":951}},{"Key":"S_USE_NEWWAY","Value":{"x":108,"y":1123}},{"Key":"S_EXEC_REGEX2","Value":{"x":612,"y":52}},{"Key":"E_USE_NEWWAY","Value":{"x":612,"y":52}},{"Key":"S_CHECK_BOT1","Value":{"x":290,"y":1432}},{"Key":"S_CHECK_BOT2","Value":{"x":226,"y":1505}},{"Key":"S_CHECK_BOT3","Value":{"x":102,"y":1372}},{"Key":"E_NEW_VALS","Value":{"x":102,"y":1372}},{"Key":"S_CHECK_EQUALS","Value":{"x":97,"y":1440}},{"Key":"S_STR_W_REGEX1","Value":{"x":537,"y":1347}},{"Key":"S_ITEM_W_REGEX1","Value":{"x":535,"y":1572}},{"Key":"S_CHECK_VALID_VAL1","Value":{"x":1875,"y":1442}},{"Key":"S_CHECK_VALID_VAL2","Value":{"x":769,"y":1523}},{"Key":"S_EXTRUCT","Value":{"x":1004,"y":1438}},{"Key":"S_EXTRUCT1","Value":{"x":811,"y":1507}},{"Key":"S_NORMALIZE_REGEX","Value":{"x":781,"y":1486}},{"Key":"S_CHECK_EQUALS1","Value":{"x":1257,"y":1509}},{"Key":"S_CHECK_EQSTR","Value":{"x":1234,"y":1419}},{"Key":"S_CHECK_EQSTR1","Value":{"x":1022,"y":1856}},{"Key":"S_COMPARE_EQSTR","Value":{"x":1610,"y":1331}},{"Key":"S_GOTO_FALSE","Value":{"x":1523,"y":383}},{"Key":"S_COMPARE_EQSTR1","Value":{"x":1612,"y":1753}},{"Key":"S_CHECK_ESTR","Value":{"x":1619,"y":1688}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"GOTO_"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=33
+content_max_height=200
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+</t>
+  </si>
+  <si>
+    <t>if (string.IsNullOrEmpty(m_exstr) &amp;&amp; string.IsNullOrEmpty(m_eqstr)) {
+    bEq=true;
+}
+else if (m_exstr == m_eqstr)
+{
+    bEq=true;
+}
+</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/01/12 7:11:10
+; * pssgEditor version : 0.20.2681.7a2a680482afe3969e88b813259898fe697acf11
+psggfile=@@@
+CfPrepareControl.psgg
+@@@
+xlsfile=@@@
+CfPrepareControl.xlsx
+@@@
+guid=@@@
+28672353-b06d-433b-a85c-dd10e8edd1e8
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":28,"y":171}},{"Key":"S_END","Value":{"x":3584,"y":133}},{"Key":"E_0003","Value":{"x":206,"y":39}},{"Key":"E_0005","Value":{"x":382,"y":43}},{"Key":"E_INOUT","Value":{"x":28,"y":14}},{"Key":"S_RETURN_FALSE","Value":{"x":1752,"y":199}},{"Key":"S_CHECK_EXCEPTION","Value":{"x":521,"y":570}},{"Key":"S_INIT2","Value":{"x":743,"y":569}},{"Key":"S_CHECK_LINES","Value":{"x":42,"y":264}},{"Key":"S_FIND_MATCHLINES","Value":{"x":159,"y":375}},{"Key":"S_TARGET","Value":{"x":953,"y":560}},{"Key":"S_CHECK_BOT","Value":{"x":310,"y":923}},{"Key":"S_STR_W_REGEX","Value":{"x":544,"y":845}},{"Key":"S_ITEM_W_REGEX","Value":{"x":544,"y":1049}},{"Key":"S_IS_VALID_REGEX","Value":{"x":1009,"y":925}},{"Key":"S_EXEC_REGEX","Value":{"x":1217,"y":587}},{"Key":"S_CHECK_VALID_VAL","Value":{"x":791,"y":1036}},{"Key":"S_GET_SIZE","Value":{"x":1958,"y":795}},{"Key":"S_CHECK_EOF","Value":{"x":2151,"y":787}},{"Key":"S_REMOVE_TOPBOT","Value":{"x":2340,"y":789}},{"Key":"S_IF_EOF","Value":{"x":2532,"y":805}},{"Key":"S_REMOVE_REST","Value":{"x":2786,"y":548}},{"Key":"S_REPLACE","Value":{"x":3042,"y":803}},{"Key":"S_REMOVE","Value":{"x":2263,"y":1244}},{"Key":"S_RETURN_TRUE","Value":{"x":2900,"y":1637}},{"Key":"S_EXEC_REGEX1","Value":{"x":36,"y":951}},{"Key":"S_USE_NEWWAY","Value":{"x":108,"y":1123}},{"Key":"S_EXEC_REGEX2","Value":{"x":612,"y":52}},{"Key":"E_USE_NEWWAY","Value":{"x":612,"y":52}},{"Key":"S_CHECK_BOT1","Value":{"x":290,"y":1432}},{"Key":"S_CHECK_BOT2","Value":{"x":226,"y":1505}},{"Key":"S_CHECK_BOT3","Value":{"x":102,"y":1372}},{"Key":"E_NEW_VALS","Value":{"x":102,"y":1372}},{"Key":"S_CHECK_EQUALS","Value":{"x":97,"y":1440}},{"Key":"S_STR_W_REGEX1","Value":{"x":537,"y":1347}},{"Key":"S_ITEM_W_REGEX1","Value":{"x":535,"y":1572}},{"Key":"S_CHECK_VALID_VAL1","Value":{"x":1875,"y":1442}},{"Key":"S_CHECK_VALID_VAL2","Value":{"x":769,"y":1523}},{"Key":"S_EXTRUCT","Value":{"x":1004,"y":1438}},{"Key":"S_EXTRUCT1","Value":{"x":811,"y":1507}},{"Key":"S_NORMALIZE_REGEX","Value":{"x":781,"y":1486}},{"Key":"S_CHECK_EQUALS1","Value":{"x":1257,"y":1509}},{"Key":"S_CHECK_EQSTR","Value":{"x":1234,"y":1419}},{"Key":"S_CHECK_EQSTR1","Value":{"x":1022,"y":1856}},{"Key":"S_COMPARE_EQSTR","Value":{"x":1610,"y":1331}},{"Key":"S_GOTO_FALSE","Value":{"x":1523,"y":383}},{"Key":"S_COMPARE_EQSTR1","Value":{"x":1612,"y":1753}},{"Key":"S_CHECK_ESTR","Value":{"x":1619,"y":1688}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"GOTO_"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=1
 font_name=@@@
 MS UI Gothic
 @@@
@@ -3411,7 +4526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB35"/>
+  <dimension ref="A1:AN35"/>
   <sheetViews>
     <sheetView tabSelected="false" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -3504,6 +4619,42 @@
       <c r="AB1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AC1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="2" s="4" customFormat="true">
       <c r="A2" s="3"/>
@@ -3588,6 +4739,42 @@
       <c r="AB2" s="3" t="s">
         <v>167</v>
       </c>
+      <c r="AC2" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="3" s="7" customFormat="true">
       <c r="A3" s="5"/>
@@ -3634,6 +4821,27 @@
       </c>
       <c r="Z3" s="5" t="s">
         <v>166</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="AI3" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="AK3" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="AL3" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="AM3" s="5" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="4" s="7" customFormat="true">
@@ -3655,6 +4863,18 @@
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
+      <c r="AE5" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG5" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH5" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI5" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="6" s="9" customFormat="true" ht="18.75" customHeight="true">
       <c r="A6" s="8"/>
@@ -3676,7 +4896,7 @@
         <v>93</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>96</v>
+        <v>232</v>
       </c>
       <c r="P6" s="8" t="s">
         <v>118</v>
@@ -3707,6 +4927,21 @@
       </c>
       <c r="AB6" s="8" t="s">
         <v>6</v>
+      </c>
+      <c r="AF6" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="AG6" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="AH6" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="AJ6" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="AN6" s="8" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7" s="11" customFormat="true">
@@ -3733,6 +4968,9 @@
       <c r="I8" s="10" t="s">
         <v>210</v>
       </c>
+      <c r="AD8" s="10" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="9" s="11" customFormat="true">
       <c r="A9" s="10"/>
@@ -3755,6 +4993,9 @@
       <c r="V10" s="10" t="s">
         <v>147</v>
       </c>
+      <c r="AF10" s="10" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="11" s="11" customFormat="true">
       <c r="A11" s="10"/>
@@ -3783,6 +5024,15 @@
       <c r="V12" s="10" t="s">
         <v>225</v>
       </c>
+      <c r="AI12" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="AK12" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="AM12" s="10" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="13" s="11" customFormat="true" ht="18.75" customHeight="true">
       <c r="A13" s="10"/>
@@ -3833,6 +5083,18 @@
       </c>
       <c r="AB13" s="10" t="s">
         <v>175</v>
+      </c>
+      <c r="AF13" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="AJ13" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="AK13" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="AM13" s="10" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="14" s="11" customFormat="true">
@@ -3989,6 +5251,24 @@
       <c r="X29" s="12" t="s">
         <v>156</v>
       </c>
+      <c r="AC29" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="AE29" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="AI29" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK29" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="AL29" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="AM29" s="12" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="30" s="13" customFormat="true">
       <c r="A30" s="12"/>
@@ -4018,6 +5298,21 @@
       </c>
       <c r="X30" s="12" t="s">
         <v>157</v>
+      </c>
+      <c r="AC30" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="AI30" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="AK30" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="AL30" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="AM30" s="12" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="31" s="15" customFormat="true" ht="18.75" customHeight="true">
@@ -4103,6 +5398,42 @@
       <c r="AB33" s="16" t="s">
         <v>41</v>
       </c>
+      <c r="AC33" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD33" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE33" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF33" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG33" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH33" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI33" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ33" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK33" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL33" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM33" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN33" s="16" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="34" s="16" customFormat="true">
       <c r="B34" s="16" t="s">
@@ -4112,7 +5443,7 @@
         <v>47</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>179</v>
+        <v>313</v>
       </c>
       <c r="F34" s="16" t="s">
         <v>212</v>
@@ -4121,13 +5452,13 @@
         <v>192</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>77</v>
+        <v>336</v>
       </c>
       <c r="I34" s="16" t="s">
         <v>193</v>
       </c>
       <c r="J34" s="16" t="s">
-        <v>78</v>
+        <v>332</v>
       </c>
       <c r="K34" s="16" t="s">
         <v>92</v>
@@ -4142,46 +5473,82 @@
         <v>98</v>
       </c>
       <c r="O34" s="16" t="s">
-        <v>104</v>
+        <v>337</v>
       </c>
       <c r="P34" s="16" t="s">
-        <v>109</v>
+        <v>234</v>
       </c>
       <c r="Q34" s="16" t="s">
-        <v>114</v>
+        <v>235</v>
       </c>
       <c r="R34" s="16" t="s">
-        <v>181</v>
+        <v>236</v>
       </c>
       <c r="S34" s="16" t="s">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c r="T34" s="16" t="s">
-        <v>184</v>
+        <v>238</v>
       </c>
       <c r="U34" s="16" t="s">
-        <v>143</v>
+        <v>314</v>
       </c>
       <c r="V34" s="16" t="s">
-        <v>149</v>
+        <v>315</v>
       </c>
       <c r="W34" s="16" t="s">
-        <v>154</v>
+        <v>316</v>
       </c>
       <c r="X34" s="16" t="s">
-        <v>158</v>
+        <v>317</v>
       </c>
       <c r="Y34" s="16" t="s">
-        <v>229</v>
+        <v>318</v>
       </c>
       <c r="Z34" s="16" t="s">
-        <v>230</v>
+        <v>319</v>
       </c>
       <c r="AA34" s="16" t="s">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="AB34" s="16" t="s">
-        <v>185</v>
+        <v>246</v>
+      </c>
+      <c r="AC34" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="AD34" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="AE34" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="AF34" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="AG34" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="AH34" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="AI34" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="AJ34" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="AK34" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="AL34" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="AM34" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="AN34" s="16" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="35" s="16" customFormat="true">
@@ -4262,6 +5629,42 @@
       </c>
       <c r="AB35" s="16" t="s">
         <v>177</v>
+      </c>
+      <c r="AC35" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="AD35" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="AE35" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="AF35" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="AG35" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="AH35" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="AI35" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="AJ35" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="AK35" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="AL35" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="AM35" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="AN35" s="16" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -4271,21 +5674,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet167.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet228.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>231</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet168.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet229.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4299,21 +5702,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet169.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet230.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet170.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet231.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4327,7 +5730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet171.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet232.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4341,7 +5744,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet172.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet233.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/psggConverter/psggConverterLib/cf_prepare/CfPrepareControl.xlsx
+++ b/psggConverter/psggConverterLib/cf_prepare/CfPrepareControl.xlsx
@@ -9,12 +9,12 @@
   </bookViews>
   <sheets>
     <sheet name="state-chart" sheetId="1" r:id="rId1"/>
-    <sheet name="itemsinfo" sheetId="233" r:id="rId236"/>
-    <sheet name="help" sheetId="232" r:id="rId235"/>
-    <sheet name="setting.ini" sheetId="231" r:id="rId234"/>
-    <sheet name="template-statefunc" sheetId="230" r:id="rId233"/>
-    <sheet name="template-source" sheetId="229" r:id="rId232"/>
-    <sheet name="config" sheetId="228" r:id="rId231"/>
+    <sheet name="itemsinfo" sheetId="245" r:id="rId248"/>
+    <sheet name="help" sheetId="244" r:id="rId247"/>
+    <sheet name="setting.ini" sheetId="243" r:id="rId246"/>
+    <sheet name="template-statefunc" sheetId="242" r:id="rId245"/>
+    <sheet name="template-source" sheetId="241" r:id="rId244"/>
+    <sheet name="config" sheetId="240" r:id="rId243"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="353">
   <si>
     <t>state</t>
     <phoneticPr fontId="2"/>
@@ -3922,6 +3922,136 @@
   </si>
   <si>
     <t>; The setting was created automatically. 2019/01/12 7:11:10
+; * pssgEditor version : 0.20.2681.7a2a680482afe3969e88b813259898fe697acf11
+psggfile=@@@
+CfPrepareControl.psgg
+@@@
+xlsfile=@@@
+CfPrepareControl.xlsx
+@@@
+guid=@@@
+28672353-b06d-433b-a85c-dd10e8edd1e8
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":28,"y":171}},{"Key":"S_END","Value":{"x":3584,"y":133}},{"Key":"E_0003","Value":{"x":206,"y":39}},{"Key":"E_0005","Value":{"x":382,"y":43}},{"Key":"E_INOUT","Value":{"x":28,"y":14}},{"Key":"S_RETURN_FALSE","Value":{"x":1752,"y":199}},{"Key":"S_CHECK_EXCEPTION","Value":{"x":521,"y":570}},{"Key":"S_INIT2","Value":{"x":743,"y":569}},{"Key":"S_CHECK_LINES","Value":{"x":42,"y":264}},{"Key":"S_FIND_MATCHLINES","Value":{"x":159,"y":375}},{"Key":"S_TARGET","Value":{"x":953,"y":560}},{"Key":"S_CHECK_BOT","Value":{"x":310,"y":923}},{"Key":"S_STR_W_REGEX","Value":{"x":544,"y":845}},{"Key":"S_ITEM_W_REGEX","Value":{"x":544,"y":1049}},{"Key":"S_IS_VALID_REGEX","Value":{"x":1009,"y":925}},{"Key":"S_EXEC_REGEX","Value":{"x":1217,"y":587}},{"Key":"S_CHECK_VALID_VAL","Value":{"x":791,"y":1036}},{"Key":"S_GET_SIZE","Value":{"x":1958,"y":795}},{"Key":"S_CHECK_EOF","Value":{"x":2151,"y":787}},{"Key":"S_REMOVE_TOPBOT","Value":{"x":2340,"y":789}},{"Key":"S_IF_EOF","Value":{"x":2532,"y":805}},{"Key":"S_REMOVE_REST","Value":{"x":2786,"y":548}},{"Key":"S_REPLACE","Value":{"x":3042,"y":803}},{"Key":"S_REMOVE","Value":{"x":2263,"y":1244}},{"Key":"S_RETURN_TRUE","Value":{"x":2900,"y":1637}},{"Key":"S_EXEC_REGEX1","Value":{"x":36,"y":951}},{"Key":"S_USE_NEWWAY","Value":{"x":108,"y":1123}},{"Key":"S_EXEC_REGEX2","Value":{"x":612,"y":52}},{"Key":"E_USE_NEWWAY","Value":{"x":612,"y":52}},{"Key":"S_CHECK_BOT1","Value":{"x":290,"y":1432}},{"Key":"S_CHECK_BOT2","Value":{"x":226,"y":1505}},{"Key":"S_CHECK_BOT3","Value":{"x":102,"y":1372}},{"Key":"E_NEW_VALS","Value":{"x":102,"y":1372}},{"Key":"S_CHECK_EQUALS","Value":{"x":97,"y":1440}},{"Key":"S_STR_W_REGEX1","Value":{"x":537,"y":1347}},{"Key":"S_ITEM_W_REGEX1","Value":{"x":535,"y":1572}},{"Key":"S_CHECK_VALID_VAL1","Value":{"x":1875,"y":1442}},{"Key":"S_CHECK_VALID_VAL2","Value":{"x":769,"y":1523}},{"Key":"S_EXTRUCT","Value":{"x":1004,"y":1438}},{"Key":"S_EXTRUCT1","Value":{"x":811,"y":1507}},{"Key":"S_NORMALIZE_REGEX","Value":{"x":781,"y":1486}},{"Key":"S_CHECK_EQUALS1","Value":{"x":1257,"y":1509}},{"Key":"S_CHECK_EQSTR","Value":{"x":1234,"y":1419}},{"Key":"S_CHECK_EQSTR1","Value":{"x":1022,"y":1856}},{"Key":"S_COMPARE_EQSTR","Value":{"x":1610,"y":1331}},{"Key":"S_GOTO_FALSE","Value":{"x":1523,"y":383}},{"Key":"S_COMPARE_EQSTR1","Value":{"x":1612,"y":1753}},{"Key":"S_CHECK_ESTR","Value":{"x":1619,"y":1688}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"GOTO_"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=33
+content_max_height=200
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/01/12 7:16:45
+; * pssgEditor version : 0.20.2681.7a2a680482afe3969e88b813259898fe697acf11
+psggfile=@@@
+CfPrepareControl.psgg
+@@@
+xlsfile=@@@
+CfPrepareControl.xlsx
+@@@
+guid=@@@
+28672353-b06d-433b-a85c-dd10e8edd1e8
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":28,"y":171}},{"Key":"S_END","Value":{"x":3584,"y":133}},{"Key":"E_0003","Value":{"x":206,"y":39}},{"Key":"E_0005","Value":{"x":382,"y":43}},{"Key":"E_INOUT","Value":{"x":28,"y":14}},{"Key":"S_RETURN_FALSE","Value":{"x":1752,"y":199}},{"Key":"S_CHECK_EXCEPTION","Value":{"x":521,"y":570}},{"Key":"S_INIT2","Value":{"x":743,"y":569}},{"Key":"S_CHECK_LINES","Value":{"x":42,"y":264}},{"Key":"S_FIND_MATCHLINES","Value":{"x":159,"y":375}},{"Key":"S_TARGET","Value":{"x":953,"y":560}},{"Key":"S_CHECK_BOT","Value":{"x":310,"y":923}},{"Key":"S_STR_W_REGEX","Value":{"x":544,"y":845}},{"Key":"S_ITEM_W_REGEX","Value":{"x":544,"y":1049}},{"Key":"S_IS_VALID_REGEX","Value":{"x":1009,"y":925}},{"Key":"S_EXEC_REGEX","Value":{"x":1217,"y":587}},{"Key":"S_CHECK_VALID_VAL","Value":{"x":791,"y":1036}},{"Key":"S_GET_SIZE","Value":{"x":1958,"y":795}},{"Key":"S_CHECK_EOF","Value":{"x":2151,"y":787}},{"Key":"S_REMOVE_TOPBOT","Value":{"x":2340,"y":789}},{"Key":"S_IF_EOF","Value":{"x":2532,"y":805}},{"Key":"S_REMOVE_REST","Value":{"x":2786,"y":548}},{"Key":"S_REPLACE","Value":{"x":3042,"y":803}},{"Key":"S_REMOVE","Value":{"x":2263,"y":1244}},{"Key":"S_RETURN_TRUE","Value":{"x":2900,"y":1637}},{"Key":"S_EXEC_REGEX1","Value":{"x":36,"y":951}},{"Key":"S_USE_NEWWAY","Value":{"x":108,"y":1123}},{"Key":"S_EXEC_REGEX2","Value":{"x":612,"y":52}},{"Key":"E_USE_NEWWAY","Value":{"x":612,"y":52}},{"Key":"S_CHECK_BOT1","Value":{"x":290,"y":1432}},{"Key":"S_CHECK_BOT2","Value":{"x":226,"y":1505}},{"Key":"S_CHECK_BOT3","Value":{"x":102,"y":1372}},{"Key":"E_NEW_VALS","Value":{"x":102,"y":1372}},{"Key":"S_CHECK_EQUALS","Value":{"x":97,"y":1440}},{"Key":"S_STR_W_REGEX1","Value":{"x":537,"y":1347}},{"Key":"S_ITEM_W_REGEX1","Value":{"x":535,"y":1572}},{"Key":"S_CHECK_VALID_VAL1","Value":{"x":1875,"y":1442}},{"Key":"S_CHECK_VALID_VAL2","Value":{"x":769,"y":1523}},{"Key":"S_EXTRUCT","Value":{"x":1004,"y":1438}},{"Key":"S_EXTRUCT1","Value":{"x":811,"y":1507}},{"Key":"S_NORMALIZE_REGEX","Value":{"x":781,"y":1486}},{"Key":"S_CHECK_EQUALS1","Value":{"x":1257,"y":1509}},{"Key":"S_CHECK_EQSTR","Value":{"x":1234,"y":1419}},{"Key":"S_CHECK_EQSTR1","Value":{"x":1022,"y":1856}},{"Key":"S_COMPARE_EQSTR","Value":{"x":1610,"y":1331}},{"Key":"S_GOTO_FALSE","Value":{"x":1523,"y":383}},{"Key":"S_COMPARE_EQSTR1","Value":{"x":1612,"y":1753}},{"Key":"S_CHECK_ESTR","Value":{"x":1619,"y":1688}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"GOTO_"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor=@@@
+"C:\Program Files (x86)\Microsoft Visual Studio 14.0\Common7\IDE\devenv.exe" /Edit %1
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_omit_basestate_string=1
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+state_width=140
+state_height=20
+comment_block_height=33
+content_max_height=200
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2019/01/12 7:39:07
 ; * pssgEditor version : 0.20.2681.7a2a680482afe3969e88b813259898fe697acf11
 psggfile=@@@
 CfPrepareControl.psgg
@@ -5674,21 +5804,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet228.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet240.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet229.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet241.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5702,7 +5832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet230.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet242.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5716,7 +5846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet231.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet243.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5730,7 +5860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet232.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet244.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5744,7 +5874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet233.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet245.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/psggConverter/psggConverterLib/cf_prepare/CfPrepareControl.xlsx
+++ b/psggConverter/psggConverterLib/cf_prepare/CfPrepareControl.xlsx
@@ -9,12 +9,12 @@
   </bookViews>
   <sheets>
     <sheet name="state-chart" sheetId="1" r:id="rId1"/>
-    <sheet name="itemsinfo" sheetId="245" r:id="rId248"/>
-    <sheet name="help" sheetId="244" r:id="rId247"/>
-    <sheet name="setting.ini" sheetId="243" r:id="rId246"/>
-    <sheet name="template-statefunc" sheetId="242" r:id="rId245"/>
-    <sheet name="template-source" sheetId="241" r:id="rId244"/>
-    <sheet name="config" sheetId="240" r:id="rId243"/>
+    <sheet name="itemsinfo" sheetId="251" r:id="rId254"/>
+    <sheet name="help" sheetId="250" r:id="rId253"/>
+    <sheet name="setting.ini" sheetId="249" r:id="rId252"/>
+    <sheet name="template-statefunc" sheetId="248" r:id="rId251"/>
+    <sheet name="template-source" sheetId="247" r:id="rId250"/>
+    <sheet name="config" sheetId="246" r:id="rId249"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="355">
   <si>
     <t>state</t>
     <phoneticPr fontId="2"/>
@@ -4113,6 +4113,97 @@
 userbutton_command=@@@
 @@@
 userbutton_callafterconvert=0
+</t>
+  </si>
+  <si>
+    <t>var findindex = -1;
+m_targetlines = StringUtil.FindMatchedLines2(m_lines, "\x3c\x3c\x3c\x3f", "\x3e\x3e\x3e", out findindex);
+m_findindex = findindex;</t>
+  </si>
+  <si>
+    <t>; The setting was created automatically. 2020/08/19 22:00:10
+; * pssgEditor version : 0.66.5030.be6b2a7a2f9e64d0160759469b371cf04a1c84a1
+psggfile=@@@
+CfPrepareControl.psgg
+@@@
+xlsfile=@@@
+CfPrepareControl.xlsx
+@@@
+guid=@@@
+28672353-b06d-433b-a85c-dd10e8edd1e8
+@@@
+bitmap_width=5000
+bitmap_height=2000
+c_statec_cmt=1
+c_thumbnail=1
+c_contents=1
+force_display_outpin=0
+last_action=@@@
+varied,Edited a state.
+@@@
+target_pathdir=@@@
+/
+@@@
+state_location_list=@@@
+@@@
+nodegroup_comment_list=@@@
+[{"Key":"\/","Value":""}]
+@@@
+nodegroup_pos_list=@@@
+[{"Key":"\/","Value":{"x":100,"y":100}}]
+@@@
+fillter_state_location_list=@@@
+[{"Key":"\/","Value":[{"Key":"S_START","Value":{"x":28,"y":171}},{"Key":"S_END","Value":{"x":3584,"y":133}},{"Key":"E_0003","Value":{"x":206,"y":39}},{"Key":"E_0005","Value":{"x":382,"y":43}},{"Key":"E_INOUT","Value":{"x":28,"y":14}},{"Key":"S_RETURN_FALSE","Value":{"x":1752,"y":199}},{"Key":"S_CHECK_EXCEPTION","Value":{"x":521,"y":570}},{"Key":"S_INIT2","Value":{"x":743,"y":569}},{"Key":"S_CHECK_LINES","Value":{"x":42,"y":264}},{"Key":"S_FIND_MATCHLINES","Value":{"x":159,"y":375}},{"Key":"S_TARGET","Value":{"x":953,"y":560}},{"Key":"S_CHECK_BOT","Value":{"x":310,"y":923}},{"Key":"S_STR_W_REGEX","Value":{"x":544,"y":845}},{"Key":"S_ITEM_W_REGEX","Value":{"x":544,"y":1049}},{"Key":"S_IS_VALID_REGEX","Value":{"x":1009,"y":925}},{"Key":"S_EXEC_REGEX","Value":{"x":1217,"y":587}},{"Key":"S_CHECK_VALID_VAL","Value":{"x":791,"y":1036}},{"Key":"S_GET_SIZE","Value":{"x":1958,"y":795}},{"Key":"S_CHECK_EOF","Value":{"x":2151,"y":787}},{"Key":"S_REMOVE_TOPBOT","Value":{"x":2340,"y":789}},{"Key":"S_IF_EOF","Value":{"x":2532,"y":805}},{"Key":"S_REMOVE_REST","Value":{"x":2786,"y":548}},{"Key":"S_REPLACE","Value":{"x":3042,"y":803}},{"Key":"S_REMOVE","Value":{"x":2263,"y":1244}},{"Key":"S_RETURN_TRUE","Value":{"x":2900,"y":1637}},{"Key":"S_USE_NEWWAY","Value":{"x":108,"y":1123}},{"Key":"E_USE_NEWWAY","Value":{"x":612,"y":52}},{"Key":"S_CHECK_BOT1","Value":{"x":290,"y":1432}},{"Key":"S_CHECK_EQUALS","Value":{"x":97,"y":1440}},{"Key":"S_STR_W_REGEX1","Value":{"x":537,"y":1347}},{"Key":"S_ITEM_W_REGEX1","Value":{"x":535,"y":1572}},{"Key":"S_EXTRUCT","Value":{"x":1004,"y":1438}},{"Key":"S_NORMALIZE_REGEX","Value":{"x":781,"y":1486}},{"Key":"S_CHECK_EQSTR","Value":{"x":1234,"y":1419}},{"Key":"S_COMPARE_EQSTR","Value":{"x":1610,"y":1331}},{"Key":"S_GOTO_FALSE","Value":{"x":1523,"y":383}},{"Key":"S_CHECK_ESTR","Value":{"x":1619,"y":1688}}]}]
+@@@
+linecolor_data=@@@
+[{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"GOTO_"}]
+@@@
+use_external_command=0
+external_command=@@@
+@@@
+source_editor_set=@@@
+@@@
+label_show=0
+label_text=@@@
+test
+@@@
+option_delete_thisstring=1
+option_delete_br_string=1
+option_delete_bracket_string=1
+option_delete_s_state_string=1
+option_copy_output_to_clipboard=0
+option_convert_with_confirm=0
+option_ignore_case_of_state=0
+option_editbranch_automode=0
+option_use_custom_prefix=0
+option_omit_basestate_string=1
+option_hide_basestate_contents=0
+option_hide_branchcmt_onbranchbox=0
+font_name=@@@
+MS UI Gothic
+@@@
+font_size=11
+comment_font_size=0
+contents_font_size=0
+state_width=140
+state_height=20
+state_short_width=50
+state_short_height=20
+comment_block_height=33
+content_max_height=200
+comment_block_fixed=0
+line_space=-1
+userbutton_title=@@@
+@@@
+userbutton_command=@@@
+@@@
+userbutton_callafterconvert=0
+itemeditform_size_list=@@@
+[{"Key":"init","Value":{"height":401,"width":1203}}]
+@@@
+decoimage_typ_name=@@@
+sym
+@@@
 </t>
   </si>
 </sst>
@@ -5173,7 +5264,7 @@
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="H13" s="10" t="s">
-        <v>75</v>
+        <v>353</v>
       </c>
       <c r="J13" s="10" t="s">
         <v>66</v>
@@ -5804,21 +5895,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet240.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet246.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet241.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet247.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5832,7 +5923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet242.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet248.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5846,7 +5937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet243.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet249.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5860,7 +5951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet244.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet250.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5874,7 +5965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet245.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet251.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
